--- a/100runs/run033/NotionalETEOutput033.xlsx
+++ b/100runs/run033/NotionalETEOutput033.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="18">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,34 +49,25 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_SOMERSAULT_State_Update</t>
-  </si>
-  <si>
     <t>Missile_BRAVER_State_Update</t>
   </si>
   <si>
-    <t>Missile_HIGHWIND_State_Update</t>
+    <t>Missile_HELLMASKER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_206.MISSILE_SOMERSAULT_206</t>
+    <t>MISSILE_BRAVER_233.MISSILE_BRAVER_233</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_226.MISSILE_BRAVER_226</t>
+    <t>MISSILE_HELLMASKER_367.MISSILE_HELLMASKER_367</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_305.MISSILE_HIGHWIND_305</t>
-  </si>
-  <si>
-    <t>MISSILE_HIGHWIND_306.MISSILE_HIGHWIND_306</t>
-  </si>
-  <si>
-    <t>MISSILE_SOMERSAULT</t>
+    <t>MISSILE_HELLMASKER_217.MISSILE_HELLMASKER_217</t>
   </si>
   <si>
     <t>MISSILE_BRAVER</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND</t>
+    <t>MISSILE_HELLMASKER</t>
   </si>
 </sst>
 </file>
@@ -434,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K213"/>
+  <dimension ref="A1:K160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -483,31 +474,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>161.2335416203004</v>
+        <v>1116578.583950107</v>
       </c>
       <c r="G2">
-        <v>-35.64381395399766</v>
+        <v>4841126.25362493</v>
       </c>
       <c r="H2">
-        <v>568.011130714444</v>
+        <v>3985222.305939713</v>
       </c>
       <c r="I2">
-        <v>-380.2603696014131</v>
+        <v>1114860.733465903</v>
       </c>
       <c r="J2">
-        <v>2537.525041308675</v>
+        <v>4843224.354912132</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984372.779561088</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -518,31 +509,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>161.2335416203004</v>
+        <v>1116578.583950107</v>
       </c>
       <c r="G3">
-        <v>-35.64381395399766</v>
+        <v>4841126.25362493</v>
       </c>
       <c r="H3">
-        <v>568.011130714444</v>
+        <v>3985222.305939713</v>
       </c>
       <c r="I3">
-        <v>-372.753017372005</v>
+        <v>1114890.347445793</v>
       </c>
       <c r="J3">
-        <v>2475.797729585426</v>
+        <v>4843175.703313045</v>
       </c>
       <c r="K3">
-        <v>319.4491263322863</v>
+        <v>3984676.575740509</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -553,31 +544,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>161.2335416203004</v>
+        <v>1116578.583950107</v>
       </c>
       <c r="G4">
-        <v>-35.64381395399766</v>
+        <v>4841126.25362493</v>
       </c>
       <c r="H4">
-        <v>568.011130714444</v>
+        <v>3985222.305939713</v>
       </c>
       <c r="I4">
-        <v>-365.0608035005853</v>
+        <v>1114920.690642693</v>
       </c>
       <c r="J4">
-        <v>2414.070417862178</v>
+        <v>4843127.051713957</v>
       </c>
       <c r="K4">
-        <v>622.9690549234178</v>
+        <v>3984965.223249873</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -588,31 +579,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>161.2335416203004</v>
+        <v>1116578.583950107</v>
       </c>
       <c r="G5">
-        <v>-35.64381395399766</v>
+        <v>4841126.25362493</v>
       </c>
       <c r="H5">
-        <v>568.011130714444</v>
+        <v>3985222.305939713</v>
       </c>
       <c r="I5">
-        <v>-357.1791759392888</v>
+        <v>1114951.781012902</v>
       </c>
       <c r="J5">
-        <v>2352.343106138929</v>
+        <v>4843078.40011487</v>
       </c>
       <c r="K5">
-        <v>910.5597857733969</v>
+        <v>3985238.722089178</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -623,31 +614,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>161.2335416203004</v>
+        <v>1116578.583950107</v>
       </c>
       <c r="G6">
-        <v>-35.64381395399766</v>
+        <v>4841126.25362493</v>
       </c>
       <c r="H6">
-        <v>568.011130714444</v>
+        <v>3985222.305939713</v>
       </c>
       <c r="I6">
-        <v>-349.1034705502598</v>
+        <v>1114983.636954874</v>
       </c>
       <c r="J6">
-        <v>2290.61579441568</v>
+        <v>4843029.748515783</v>
       </c>
       <c r="K6">
-        <v>1182.221318882222</v>
+        <v>3985497.072258426</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -658,31 +649,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>161.2335416203004</v>
+        <v>1116578.583950107</v>
       </c>
       <c r="G7">
-        <v>-35.64381395399766</v>
+        <v>4841126.25362493</v>
       </c>
       <c r="H7">
-        <v>568.011130714444</v>
+        <v>3985222.305939713</v>
       </c>
       <c r="I7">
-        <v>-340.8289083455385</v>
+        <v>1115016.27732011</v>
       </c>
       <c r="J7">
-        <v>2228.888482692431</v>
+        <v>4842981.096916696</v>
       </c>
       <c r="K7">
-        <v>1437.953654249894</v>
+        <v>3985740.273757617</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -693,31 +684,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>161.2335416203004</v>
+        <v>1116578.583950107</v>
       </c>
       <c r="G8">
-        <v>-35.64381395399766</v>
+        <v>4841126.25362493</v>
       </c>
       <c r="H8">
-        <v>568.011130714444</v>
+        <v>3985222.305939713</v>
       </c>
       <c r="I8">
-        <v>-332.3505926589837</v>
+        <v>1115049.721424312</v>
       </c>
       <c r="J8">
-        <v>2167.161170969183</v>
+        <v>4842932.445317608</v>
       </c>
       <c r="K8">
-        <v>1677.756791876413</v>
+        <v>3985968.32658675</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -728,31 +719,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>161.2335416203004</v>
+        <v>1116578.583950107</v>
       </c>
       <c r="G9">
-        <v>-35.64381395399766</v>
+        <v>4841126.25362493</v>
       </c>
       <c r="H9">
-        <v>568.011130714444</v>
+        <v>3985222.305939713</v>
       </c>
       <c r="I9">
-        <v>-323.6635062485549</v>
+        <v>1115083.989058812</v>
       </c>
       <c r="J9">
-        <v>2105.433859245934</v>
+        <v>4842883.793718521</v>
       </c>
       <c r="K9">
-        <v>1901.630731761779</v>
+        <v>3986181.230745825</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -763,31 +754,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>161.2335416203004</v>
+        <v>1116578.583950107</v>
       </c>
       <c r="G10">
-        <v>-29.75801696283691</v>
+        <v>4841142.766449907</v>
       </c>
       <c r="H10">
-        <v>568.011130714444</v>
+        <v>3985222.305939713</v>
       </c>
       <c r="I10">
-        <v>-314.7625083272423</v>
+        <v>1115119.100502285</v>
       </c>
       <c r="J10">
-        <v>2043.706547522685</v>
+        <v>4842835.142119434</v>
       </c>
       <c r="K10">
-        <v>2109.57547390599</v>
+        <v>3986378.986234842</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -798,31 +789,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>125.1360372313349</v>
+        <v>1116529.903382845</v>
       </c>
       <c r="G11">
-        <v>-23.87221997167616</v>
+        <v>4841159.279274883</v>
       </c>
       <c r="H11">
-        <v>699.7858908615924</v>
+        <v>3985421.560045378</v>
       </c>
       <c r="I11">
-        <v>-305.6423315208853</v>
+        <v>1115155.076532752</v>
       </c>
       <c r="J11">
-        <v>1981.979235799437</v>
+        <v>4842786.490520347</v>
       </c>
       <c r="K11">
-        <v>2301.591018309048</v>
+        <v>3986561.593053802</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -833,31 +824,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>103.9305642491153</v>
+        <v>1116501.305991659</v>
       </c>
       <c r="G12">
-        <v>-17.98642298051541</v>
+        <v>4841175.792099859</v>
       </c>
       <c r="H12">
-        <v>778.2776772223166</v>
+        <v>3985540.245980953</v>
       </c>
       <c r="I12">
-        <v>-296.2975787510805</v>
+        <v>1115191.938439873</v>
       </c>
       <c r="J12">
-        <v>1920.251924076188</v>
+        <v>4842737.838921259</v>
       </c>
       <c r="K12">
-        <v>2477.677364970954</v>
+        <v>3986729.051202705</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -868,31 +859,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>90.54411399052879</v>
+        <v>1116483.253220332</v>
       </c>
       <c r="G13">
-        <v>-12.10062598935466</v>
+        <v>4841192.304924835</v>
       </c>
       <c r="H13">
-        <v>834.3704518772945</v>
+        <v>3985625.062797433</v>
       </c>
       <c r="I13">
-        <v>-286.7227200413341</v>
+        <v>1115229.708037543</v>
       </c>
       <c r="J13">
-        <v>1858.52461235294</v>
+        <v>4842689.187322172</v>
       </c>
       <c r="K13">
-        <v>2637.834513891706</v>
+        <v>3986881.360681549</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -903,31 +894,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>81.20845791898222</v>
+        <v>1116470.663290889</v>
       </c>
       <c r="G14">
-        <v>-6.214828998193908</v>
+        <v>4841208.81774981</v>
       </c>
       <c r="H14">
-        <v>878.0498654493999</v>
+        <v>3985691.109606985</v>
       </c>
       <c r="I14">
-        <v>-276.9120892445687</v>
+        <v>1115268.407676809</v>
       </c>
       <c r="J14">
-        <v>1796.797300629691</v>
+        <v>4842640.535723085</v>
       </c>
       <c r="K14">
-        <v>2782.062465071304</v>
+        <v>3987018.521490336</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -938,31 +929,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>74.24377891860739</v>
+        <v>1116461.270826499</v>
       </c>
       <c r="G15">
-        <v>-0.3290320070331608</v>
+        <v>4841225.330574787</v>
       </c>
       <c r="H15">
-        <v>913.8266932491002</v>
+        <v>3985745.207067067</v>
       </c>
       <c r="I15">
-        <v>-266.8598806900479</v>
+        <v>1115308.060259089</v>
       </c>
       <c r="J15">
-        <v>1735.069988906442</v>
+        <v>4842591.884123998</v>
       </c>
       <c r="K15">
-        <v>2910.361218509749</v>
+        <v>3987140.533629066</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -973,31 +964,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>68.79837252890252</v>
+        <v>1116453.927230965</v>
       </c>
       <c r="G16">
-        <v>5.556764984127591</v>
+        <v>4841241.843399762</v>
       </c>
       <c r="H16">
-        <v>944.1270548135944</v>
+        <v>3985791.023666832</v>
       </c>
       <c r="I16">
-        <v>-256.5601457477343</v>
+        <v>1115348.689249728</v>
       </c>
       <c r="J16">
-        <v>1673.342677183194</v>
+        <v>4842543.23252491</v>
       </c>
       <c r="K16">
-        <v>3022.730774207041</v>
+        <v>3987247.397097738</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1008,31 +999,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>64.39264226659103</v>
+        <v>1116447.985727474</v>
       </c>
       <c r="G17">
-        <v>11.44256197528834</v>
+        <v>4841258.356224739</v>
       </c>
       <c r="H17">
-        <v>970.4070999525305</v>
+        <v>3985830.761222682</v>
       </c>
       <c r="I17">
-        <v>-246.0067893080486</v>
+        <v>1115390.318691883</v>
       </c>
       <c r="J17">
-        <v>1611.615365459945</v>
+        <v>4842494.580925823</v>
       </c>
       <c r="K17">
-        <v>3119.171132163178</v>
+        <v>3987339.111896352</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1043,31 +1034,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>60.73431629923527</v>
+        <v>1116443.052162499</v>
       </c>
       <c r="G18">
-        <v>17.32835896644909</v>
+        <v>4841274.869049716</v>
       </c>
       <c r="H18">
-        <v>993.6097793025488</v>
+        <v>3985865.845552319</v>
       </c>
       <c r="I18">
-        <v>-235.1935661749455</v>
+        <v>1115432.973220753</v>
       </c>
       <c r="J18">
-        <v>1549.888053736696</v>
+        <v>4842445.929326736</v>
       </c>
       <c r="K18">
-        <v>3199.682292378164</v>
+        <v>3987415.678024909</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1078,31 +1069,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>57.63416029672972</v>
+        <v>1116438.871337388</v>
       </c>
       <c r="G19">
-        <v>23.21415595760985</v>
+        <v>4841291.381874691</v>
       </c>
       <c r="H19">
-        <v>1014.380846369965</v>
+        <v>3985897.253087325</v>
       </c>
       <c r="I19">
-        <v>-224.1140773701727</v>
+        <v>1115476.678078155</v>
       </c>
       <c r="J19">
-        <v>1488.160742013448</v>
+        <v>4842397.277727649</v>
       </c>
       <c r="K19">
-        <v>3264.264254851995</v>
+        <v>3987477.095483408</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1113,31 +1104,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>54.96367835292637</v>
+        <v>1116435.269964437</v>
       </c>
       <c r="G20">
-        <v>29.09995294877059</v>
+        <v>4841307.894699668</v>
       </c>
       <c r="H20">
-        <v>1033.18196097916</v>
+        <v>3985925.681894729</v>
       </c>
       <c r="I20">
-        <v>-212.761766346525</v>
+        <v>1115521.459127462</v>
       </c>
       <c r="J20">
-        <v>1426.433430290199</v>
+        <v>4842348.626128561</v>
       </c>
       <c r="K20">
-        <v>3312.917019584673</v>
+        <v>3987523.364271849</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1148,31 +1139,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>52.63220962755234</v>
+        <v>1116432.125779762</v>
       </c>
       <c r="G21">
-        <v>34.98574993993134</v>
+        <v>4841324.407524643</v>
       </c>
       <c r="H21">
-        <v>1050.354632422988</v>
+        <v>3985951.648364231</v>
       </c>
       <c r="I21">
-        <v>-201.1299151078547</v>
+        <v>1115567.342868911</v>
       </c>
       <c r="J21">
-        <v>1364.70611856695</v>
+        <v>4842299.974529474</v>
       </c>
       <c r="K21">
-        <v>3345.640586576197</v>
+        <v>3987554.484390233</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1183,31 +1174,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>50.57374310090098</v>
+        <v>1116429.349761866</v>
       </c>
       <c r="G22">
-        <v>40.8715469310921</v>
+        <v>4841340.920349619</v>
       </c>
       <c r="H22">
-        <v>1066.158604845048</v>
+        <v>3985975.545250003</v>
       </c>
       <c r="I22">
-        <v>-189.211640233539</v>
+        <v>1115614.356455281</v>
       </c>
       <c r="J22">
-        <v>1302.978806843702</v>
+        <v>4842251.322930387</v>
       </c>
       <c r="K22">
-        <v>3362.434955826569</v>
+        <v>3987570.455838559</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1218,31 +1209,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>48.7389352947962</v>
+        <v>1116426.875366853</v>
       </c>
       <c r="G23">
-        <v>46.75734392225284</v>
+        <v>4841357.433174595</v>
       </c>
       <c r="H23">
-        <v>1080.796040924364</v>
+        <v>3985997.678238383</v>
       </c>
       <c r="I23">
-        <v>-176.9998888050552</v>
+        <v>1115662.527707964</v>
       </c>
       <c r="J23">
-        <v>1241.251495120453</v>
+        <v>4842202.6713313</v>
       </c>
       <c r="K23">
-        <v>3363.300127335786</v>
+        <v>3987571.278616828</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1253,31 +1244,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>47.09007071165031</v>
+        <v>1116424.651732156</v>
       </c>
       <c r="G24">
-        <v>52.6431409134136</v>
+        <v>4841373.945999572</v>
       </c>
       <c r="H24">
-        <v>1094.42737689494</v>
+        <v>3986018.289921947</v>
       </c>
       <c r="I24">
-        <v>-164.4874342322503</v>
+        <v>1115711.885133427</v>
       </c>
       <c r="J24">
-        <v>1179.524183397205</v>
+        <v>4842154.019732212</v>
       </c>
       <c r="K24">
-        <v>3348.236101103851</v>
+        <v>3987556.952725038</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1288,31 +1279,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>45.59776510351821</v>
+        <v>1116422.639230606</v>
       </c>
       <c r="G25">
-        <v>58.52893790457435</v>
+        <v>4841390.458824548</v>
       </c>
       <c r="H25">
-        <v>1107.18207018734</v>
+        <v>3986037.57605081</v>
       </c>
       <c r="I25">
-        <v>-151.666871976837</v>
+        <v>1115762.457940084</v>
       </c>
       <c r="J25">
-        <v>1117.796871673956</v>
+        <v>4842105.368133125</v>
       </c>
       <c r="K25">
-        <v>3317.242877130762</v>
+        <v>3987527.478163192</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1323,31 +1314,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>44.2387422017836</v>
+        <v>1116420.806472168</v>
       </c>
       <c r="G26">
-        <v>64.41473489573511</v>
+        <v>4841406.971649524</v>
       </c>
       <c r="H26">
-        <v>1119.166095042862</v>
+        <v>3986055.696866603</v>
       </c>
       <c r="I26">
-        <v>-138.5306151705853</v>
+        <v>1115814.276055579</v>
       </c>
       <c r="J26">
-        <v>1056.069559950707</v>
+        <v>4842056.716534038</v>
       </c>
       <c r="K26">
-        <v>3270.320455416519</v>
+        <v>3987482.854931287</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1358,31 +1349,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>42.99429431629731</v>
+        <v>1116419.128227923</v>
       </c>
       <c r="G27">
-        <v>70.30053188689584</v>
+        <v>4841423.4844745</v>
       </c>
       <c r="H27">
-        <v>1130.467299819765</v>
+        <v>3986072.785203157</v>
       </c>
       <c r="I27">
-        <v>-125.0708901256144</v>
+        <v>1115867.370144496</v>
       </c>
       <c r="J27">
-        <v>994.3422482274584</v>
+        <v>4842008.06493495</v>
       </c>
       <c r="K27">
-        <v>3207.468835961124</v>
+        <v>3987423.083029325</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1393,31 +1384,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>41.8491915840527</v>
+        <v>1116417.583959101</v>
       </c>
       <c r="G28">
-        <v>76.1863288780566</v>
+        <v>4841439.997299476</v>
       </c>
       <c r="H28">
-        <v>1141.159318653708</v>
+        <v>3986088.952401247</v>
       </c>
       <c r="I28">
-        <v>-111.279731734131</v>
+        <v>1115921.771626508</v>
       </c>
       <c r="J28">
-        <v>932.61493650421</v>
+        <v>4841959.413335864</v>
       </c>
       <c r="K28">
-        <v>3128.688018764575</v>
+        <v>3987348.162457305</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1428,31 +1419,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>40.79089323270153</v>
+        <v>1116416.156753399</v>
       </c>
       <c r="G29">
-        <v>82.07212586921736</v>
+        <v>4841456.510124452</v>
       </c>
       <c r="H29">
-        <v>1151.304481719728</v>
+        <v>3986104.292709142</v>
       </c>
       <c r="I29">
-        <v>-97.14897875489031</v>
+        <v>1115977.512694965</v>
       </c>
       <c r="J29">
-        <v>870.8876247809612</v>
+        <v>4841910.761736776</v>
       </c>
       <c r="K29">
-        <v>3033.978003826872</v>
+        <v>3987258.093215229</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1463,31 +1454,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>39.80896683572566</v>
+        <v>1116414.8325418</v>
       </c>
       <c r="G30">
-        <v>87.95792286037809</v>
+        <v>4841473.022949427</v>
       </c>
       <c r="H30">
-        <v>1160.956016803044</v>
+        <v>3986118.886611565</v>
       </c>
       <c r="I30">
-        <v>-82.67026898359022</v>
+        <v>1116034.626335952</v>
       </c>
       <c r="J30">
-        <v>809.1603130577125</v>
+        <v>4841862.110137689</v>
       </c>
       <c r="K30">
-        <v>2923.338791148015</v>
+        <v>3987152.875303094</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1498,31 +1489,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>38.8946537451505</v>
+        <v>1116413.599512518</v>
       </c>
       <c r="G31">
-        <v>93.84371985153885</v>
+        <v>4841489.535774404</v>
       </c>
       <c r="H31">
-        <v>1170.159739688335</v>
+        <v>3986132.803385689</v>
       </c>
       <c r="I31">
-        <v>-67.83503430434065</v>
+        <v>1116093.146347805</v>
       </c>
       <c r="J31">
-        <v>747.4330013344641</v>
+        <v>4841813.458538601</v>
       </c>
       <c r="K31">
-        <v>2796.770380728007</v>
+        <v>3987032.508720901</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1533,31 +1524,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>38.04053914566133</v>
+        <v>1116412.447666043</v>
       </c>
       <c r="G32">
-        <v>99.7295168426996</v>
+        <v>4841506.048599381</v>
       </c>
       <c r="H32">
-        <v>1178.955369498264</v>
+        <v>3986146.103090046</v>
       </c>
       <c r="I32">
-        <v>-52.63449561928022</v>
+        <v>1116153.107361112</v>
       </c>
       <c r="J32">
-        <v>685.7056896112152</v>
+        <v>4841764.806939514</v>
       </c>
       <c r="K32">
-        <v>2654.272772566843</v>
+        <v>3986896.993468652</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1568,31 +1559,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>37.24029822686643</v>
+        <v>1116411.368472826</v>
       </c>
       <c r="G33">
-        <v>105.6153138338603</v>
+        <v>4841522.561424356</v>
       </c>
       <c r="H33">
-        <v>1187.377564608866</v>
+        <v>3986158.838130903</v>
       </c>
       <c r="I33">
-        <v>-37.05965765333924</v>
+        <v>1116214.54485921</v>
       </c>
       <c r="J33">
-        <v>623.9783778879668</v>
+        <v>4841716.155340428</v>
       </c>
       <c r="K33">
-        <v>2495.845966664528</v>
+        <v>3986746.329546344</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1603,31 +1594,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>36.48849856582536</v>
+        <v>1116410.354606782</v>
       </c>
       <c r="G34">
-        <v>111.5011108250211</v>
+        <v>4841539.074249333</v>
       </c>
       <c r="H34">
-        <v>1195.456747479082</v>
+        <v>3986171.054509484</v>
       </c>
       <c r="I34">
-        <v>-21.10130363107515</v>
+        <v>1116277.495199176</v>
       </c>
       <c r="J34">
-        <v>562.2510661647181</v>
+        <v>4841667.50374134</v>
       </c>
       <c r="K34">
-        <v>2321.489963021058</v>
+        <v>3986580.516953978</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1638,31 +1629,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>35.78044458463203</v>
+        <v>1116409.399735524</v>
       </c>
       <c r="G35">
-        <v>117.3869078161818</v>
+        <v>4841555.587074308</v>
       </c>
       <c r="H35">
-        <v>1203.219767994533</v>
+        <v>3986182.792824987</v>
       </c>
       <c r="I35">
-        <v>-4.749989822429368</v>
+        <v>1116341.99563335</v>
       </c>
       <c r="J35">
-        <v>500.5237544414693</v>
+        <v>4841618.852142252</v>
       </c>
       <c r="K35">
-        <v>2131.204761636435</v>
+        <v>3986399.555691555</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1673,31 +1664,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>35.11205389483245</v>
+        <v>1116408.4983536</v>
       </c>
       <c r="G36">
-        <v>123.2727048073426</v>
+        <v>4841572.099899285</v>
       </c>
       <c r="H36">
-        <v>1210.690441839254</v>
+        <v>3986194.089088657</v>
       </c>
       <c r="I36">
-        <v>12.00396004582149</v>
+        <v>1116408.084331377</v>
       </c>
       <c r="J36">
-        <v>438.7964427182208</v>
+        <v>4841570.200543165</v>
       </c>
       <c r="K36">
-        <v>1924.990362510659</v>
+        <v>3986203.445759075</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1708,31 +1699,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>34.47975808370477</v>
+        <v>1116407.645648703</v>
       </c>
       <c r="G37">
-        <v>129.1585017985034</v>
+        <v>4841588.61272426</v>
       </c>
       <c r="H37">
-        <v>1217.889991125689</v>
+        <v>3986204.975390045</v>
       </c>
       <c r="I37">
-        <v>29.17046051622675</v>
+        <v>1116475.800402792</v>
       </c>
       <c r="J37">
-        <v>377.0691309949721</v>
+        <v>4841521.548944078</v>
       </c>
       <c r="K37">
-        <v>1702.846765643729</v>
+        <v>3985992.187156537</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1743,31 +1734,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>33.88042243285688</v>
+        <v>1116406.837393397</v>
       </c>
       <c r="G38">
-        <v>135.0442987896641</v>
+        <v>4841605.125549236</v>
       </c>
       <c r="H38">
-        <v>1224.837407833039</v>
+        <v>3986215.480446561</v>
       </c>
       <c r="I38">
-        <v>46.75967026782504</v>
+        <v>1116545.183920168</v>
       </c>
       <c r="J38">
-        <v>315.3418192717236</v>
+        <v>4841472.897344992</v>
       </c>
       <c r="K38">
-        <v>1464.773971035647</v>
+        <v>3985765.779883941</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1778,31 +1769,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>33.31128044409627</v>
+        <v>1116406.069856822</v>
       </c>
       <c r="G39">
-        <v>140.9300957808249</v>
+        <v>4841621.638374213</v>
       </c>
       <c r="H39">
-        <v>1231.549755733502</v>
+        <v>3986225.63006001</v>
       </c>
       <c r="I39">
-        <v>64.78199812778001</v>
+        <v>1116616.275942828</v>
       </c>
       <c r="J39">
-        <v>253.6145075484748</v>
+        <v>4841424.245745903</v>
       </c>
       <c r="K39">
-        <v>1210.771978686409</v>
+        <v>3985524.223941287</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1813,31 +1804,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>32.76988005062855</v>
+        <v>1116405.339732158</v>
       </c>
       <c r="G40">
-        <v>146.8158927719856</v>
+        <v>4841638.151199189</v>
       </c>
       <c r="H40">
-        <v>1238.042422891573</v>
+        <v>3986235.447498391</v>
       </c>
       <c r="I40">
-        <v>83.24810923104893</v>
+        <v>1116689.118541143</v>
       </c>
       <c r="J40">
-        <v>191.8871958252261</v>
+        <v>4841375.594146816</v>
       </c>
       <c r="K40">
-        <v>940.8407885960194</v>
+        <v>3985267.519328577</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1848,31 +1839,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>32.25403912705203</v>
+        <v>1116404.644076622</v>
       </c>
       <c r="G41">
-        <v>152.7016897631464</v>
+        <v>4841654.664024165</v>
       </c>
       <c r="H41">
-        <v>1244.329334139118</v>
+        <v>3986244.953817178</v>
       </c>
       <c r="I41">
-        <v>102.1689313317248</v>
+        <v>1116763.754821426</v>
       </c>
       <c r="J41">
-        <v>130.1598841019776</v>
+        <v>4841326.942547729</v>
       </c>
       <c r="K41">
-        <v>654.9804007644765</v>
+        <v>3984995.666045808</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1883,31 +1874,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>31.76180845673057</v>
+        <v>1116403.980261528</v>
       </c>
       <c r="G42">
-        <v>158.5874867543071</v>
+        <v>4841671.176849141</v>
       </c>
       <c r="H42">
-        <v>1250.423130906036</v>
+        <v>3986254.168131236</v>
       </c>
       <c r="I42">
-        <v>121.5556612697932</v>
+        <v>1116840.228951448</v>
       </c>
       <c r="J42">
-        <v>68.43257237872888</v>
+        <v>4841278.290948642</v>
       </c>
       <c r="K42">
-        <v>353.1908151917793</v>
+        <v>3984708.664092982</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1918,31 +1909,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>31.29144072333003</v>
+        <v>1116403.345930472</v>
       </c>
       <c r="G43">
-        <v>164.4732837454679</v>
+        <v>4841687.689674118</v>
       </c>
       <c r="H43">
-        <v>1256.335324246076</v>
+        <v>3986263.10784621</v>
       </c>
       <c r="I43">
-        <v>141.4197715971217</v>
+        <v>1116918.586186567</v>
       </c>
       <c r="J43">
-        <v>6.705260655480126</v>
+        <v>4841229.639349555</v>
       </c>
       <c r="K43">
-        <v>35.47203187792906</v>
+        <v>3984406.513470098</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1953,31 +1944,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>30.84136440192481</v>
+        <v>1116402.738964118</v>
       </c>
       <c r="G44">
-        <v>170.3590807366286</v>
+        <v>4841704.202499093</v>
       </c>
       <c r="H44">
-        <v>1262.076425713832</v>
+        <v>3986271.788856421</v>
       </c>
       <c r="I44">
-        <v>161.7730173666142</v>
+        <v>1116998.872896513</v>
       </c>
       <c r="J44">
-        <v>-55.02205106776834</v>
+        <v>4841180.987750467</v>
       </c>
       <c r="K44">
-        <v>-298.1759491770737</v>
+        <v>3984089.214177156</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1988,31 +1979,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>30.41016166050195</v>
+        <v>1116402.157450398</v>
       </c>
       <c r="G45">
-        <v>176.2448777277893</v>
+        <v>4841720.715324069</v>
       </c>
       <c r="H45">
-        <v>1267.656059831909</v>
+        <v>3986280.225714928</v>
       </c>
       <c r="I45">
-        <v>182.6274430885378</v>
+        <v>1117081.136592829</v>
       </c>
       <c r="J45">
-        <v>-116.7493627910171</v>
+        <v>4841132.33615138</v>
       </c>
       <c r="K45">
-        <v>-647.7531279732308</v>
+        <v>3983756.766214157</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2023,31 +2014,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>29.99654956378421</v>
+        <v>1116401.599659164</v>
       </c>
       <c r="G46">
-        <v>182.1306747189501</v>
+        <v>4841737.228149045</v>
       </c>
       <c r="H46">
-        <v>1273.08306117095</v>
+        <v>3986288.431780316</v>
       </c>
       <c r="I46">
-        <v>203.995389858144</v>
+        <v>1117165.425956986</v>
       </c>
       <c r="J46">
-        <v>-178.4766745142659</v>
+        <v>4841083.684552292</v>
       </c>
       <c r="K46">
-        <v>-1013.259504510542</v>
+        <v>3983409.169581101</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2058,31 +2049,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>29.59936401170469</v>
+        <v>1116401.064020529</v>
       </c>
       <c r="G47">
-        <v>188.0164717101109</v>
+        <v>4841753.740974021</v>
       </c>
       <c r="H47">
-        <v>1278.365558501612</v>
+        <v>3986296.419343945</v>
       </c>
       <c r="I47">
-        <v>225.8895026588011</v>
+        <v>1117251.79086919</v>
       </c>
       <c r="J47">
-        <v>-240.2039862375146</v>
+        <v>4841035.032953206</v>
       </c>
       <c r="K47">
-        <v>-1394.695078789006</v>
+        <v>3983046.424277986</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2093,31 +2084,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>29.21754595453585</v>
+        <v>1116400.549106274</v>
       </c>
       <c r="G48">
-        <v>193.9022687012716</v>
+        <v>4841770.253798998</v>
       </c>
       <c r="H48">
-        <v>1283.511048030947</v>
+        <v>3986304.199740686</v>
       </c>
       <c r="I48">
-        <v>248.3227378449599</v>
+        <v>1117340.282437904</v>
       </c>
       <c r="J48">
-        <v>-301.9312979607628</v>
+        <v>4840986.381354119</v>
       </c>
       <c r="K48">
-        <v>-1792.059850808621</v>
+        <v>3982668.530304814</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2128,31 +2119,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>28.85012951294348</v>
+        <v>1116400.053613826</v>
       </c>
       <c r="G49">
-        <v>199.7880656924324</v>
+        <v>4841786.766623973</v>
       </c>
       <c r="H49">
-        <v>1288.52645737938</v>
+        <v>3986311.783445661</v>
       </c>
       <c r="I49">
-        <v>271.3083708093802</v>
+        <v>1117430.953030086</v>
       </c>
       <c r="J49">
-        <v>-363.6586096840115</v>
+        <v>4840937.729755031</v>
       </c>
       <c r="K49">
-        <v>-2205.353820569392</v>
+        <v>3982275.487661585</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2163,31 +2154,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>28.49623169954084</v>
+        <v>1116399.576352403</v>
       </c>
       <c r="G50">
-        <v>205.6738626835931</v>
+        <v>4841803.27944895</v>
       </c>
       <c r="H50">
-        <v>1293.418201668526</v>
+        <v>3986319.180159057</v>
       </c>
       <c r="I50">
-        <v>294.8600038391545</v>
+        <v>1117523.856302185</v>
       </c>
       <c r="J50">
-        <v>-425.3859214072603</v>
+        <v>4840889.078155943</v>
       </c>
       <c r="K50">
-        <v>-2634.576988071316</v>
+        <v>3981867.296348298</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2198,31 +2189,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>28.15504349294109</v>
+        <v>1116399.11623097</v>
       </c>
       <c r="G51">
-        <v>211.5596596747538</v>
+        <v>4841819.792273927</v>
       </c>
       <c r="H51">
-        <v>1298.192232859207</v>
+        <v>3986326.398880716</v>
       </c>
       <c r="I51">
-        <v>318.991574165182</v>
+        <v>1117619.04723189</v>
       </c>
       <c r="J51">
-        <v>-487.1132331305091</v>
+        <v>4840840.426556856</v>
       </c>
       <c r="K51">
-        <v>-3079.729353314394</v>
+        <v>3981443.956364953</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2233,31 +2224,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>27.82582205892859</v>
+        <v>1116398.672247752</v>
       </c>
       <c r="G52">
-        <v>217.4454566659146</v>
+        <v>4841836.305098902</v>
       </c>
       <c r="H52">
-        <v>1302.854083291552</v>
+        <v>3986333.447975988</v>
       </c>
       <c r="I52">
-        <v>343.7173622098505</v>
+        <v>1117716.582150664</v>
       </c>
       <c r="J52">
-        <v>-548.8405448537578</v>
+        <v>4840791.77495777</v>
       </c>
       <c r="K52">
-        <v>-3540.810916298625</v>
+        <v>3981005.46771155</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2268,31 +2259,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>27.50788394852522</v>
+        <v>1116398.24348106</v>
       </c>
       <c r="G53">
-        <v>223.3312536570754</v>
+        <v>4841852.817923878</v>
       </c>
       <c r="H53">
-        <v>1307.408904226042</v>
+        <v>3986340.335233993</v>
       </c>
       <c r="I53">
-        <v>369.0520000378105</v>
+        <v>1117816.518777084</v>
       </c>
       <c r="J53">
-        <v>-610.567856577006</v>
+        <v>4840743.123358683</v>
       </c>
       <c r="K53">
-        <v>-4017.821677024006</v>
+        <v>3980551.830388091</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2303,31 +2294,31 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>27.20059913122174</v>
+        <v>1116397.829081242</v>
       </c>
       <c r="G54">
-        <v>229.2170506482361</v>
+        <v>4841869.330748854</v>
       </c>
       <c r="H54">
-        <v>1311.861500058832</v>
+        <v>3986347.067919369</v>
       </c>
       <c r="I54">
-        <v>395.0104800148451</v>
+        <v>1117918.916250988</v>
       </c>
       <c r="J54">
-        <v>-672.2951683002548</v>
+        <v>4840694.471759594</v>
       </c>
       <c r="K54">
-        <v>-4510.761635490544</v>
+        <v>3980083.044394573</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2338,31 +2329,31 @@
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>246.74800082229</v>
+        <v>1116577.820806979</v>
       </c>
       <c r="G55">
-        <v>-141.3647055424537</v>
+        <v>4841121.362168142</v>
       </c>
       <c r="H55">
-        <v>1436.447246332679</v>
+        <v>3985225.045694946</v>
       </c>
       <c r="I55">
-        <v>-1813.823608677243</v>
+        <v>1114862.588709235</v>
       </c>
       <c r="J55">
-        <v>2218.427422110127</v>
+        <v>4843224.622769351</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984365.581833742</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2373,31 +2364,31 @@
         <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>246.74800082229</v>
+        <v>1116577.820806979</v>
       </c>
       <c r="G56">
-        <v>-141.3647055424537</v>
+        <v>4841121.362168142</v>
       </c>
       <c r="H56">
-        <v>1436.447246332679</v>
+        <v>3985225.045694946</v>
       </c>
       <c r="I56">
-        <v>-1778.013900906146</v>
+        <v>1114892.202738406</v>
       </c>
       <c r="J56">
-        <v>2164.462413374933</v>
+        <v>4843175.971167573</v>
       </c>
       <c r="K56">
-        <v>360.7915578634415</v>
+        <v>3984669.377464358</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2408,31 +2399,31 @@
         <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>246.74800082229</v>
+        <v>1116577.820806979</v>
       </c>
       <c r="G57">
-        <v>-141.3647055424537</v>
+        <v>4841121.362168142</v>
       </c>
       <c r="H57">
-        <v>1436.447246332679</v>
+        <v>3985225.045694946</v>
       </c>
       <c r="I57">
-        <v>-1741.322412025513</v>
+        <v>1114922.5459858</v>
       </c>
       <c r="J57">
-        <v>2110.49740463974</v>
+        <v>4843127.319565794</v>
       </c>
       <c r="K57">
-        <v>703.5923948426821</v>
+        <v>3984958.024452283</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2443,31 +2434,31 @@
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>246.74800082229</v>
+        <v>1116577.820806979</v>
       </c>
       <c r="G58">
-        <v>-141.3647055424537</v>
+        <v>4841121.362168142</v>
       </c>
       <c r="H58">
-        <v>1436.447246332679</v>
+        <v>3985225.045694946</v>
       </c>
       <c r="I58">
-        <v>-1703.727428986744</v>
+        <v>1114953.636407746</v>
       </c>
       <c r="J58">
-        <v>2056.532395904547</v>
+        <v>4843078.667964017</v>
       </c>
       <c r="K58">
-        <v>1028.402510937724</v>
+        <v>3985231.522797516</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2478,31 +2469,31 @@
         <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>246.74800082229</v>
+        <v>1116577.820806979</v>
       </c>
       <c r="G59">
-        <v>-141.3647055424537</v>
+        <v>4841121.362168142</v>
       </c>
       <c r="H59">
-        <v>1436.447246332679</v>
+        <v>3985225.045694946</v>
       </c>
       <c r="I59">
-        <v>-1665.206704077397</v>
+        <v>1114985.49240273</v>
       </c>
       <c r="J59">
-        <v>2002.567387169353</v>
+        <v>4843030.016362239</v>
       </c>
       <c r="K59">
-        <v>1335.221906148566</v>
+        <v>3985489.872500057</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2513,31 +2504,31 @@
         <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>246.74800082229</v>
+        <v>1116577.820806979</v>
       </c>
       <c r="G60">
-        <v>-141.3647055424537</v>
+        <v>4841121.362168142</v>
       </c>
       <c r="H60">
-        <v>1436.447246332679</v>
+        <v>3985225.045694946</v>
       </c>
       <c r="I60">
-        <v>-1625.737441755573</v>
+        <v>1115018.132822283</v>
       </c>
       <c r="J60">
-        <v>1948.60237843416</v>
+        <v>4842981.364760461</v>
       </c>
       <c r="K60">
-        <v>1624.050580475209</v>
+        <v>3985733.073559907</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2548,31 +2539,31 @@
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>246.74800082229</v>
+        <v>1116577.820806979</v>
       </c>
       <c r="G61">
-        <v>-141.3647055424537</v>
+        <v>4841121.362168142</v>
       </c>
       <c r="H61">
-        <v>1436.447246332679</v>
+        <v>3985225.045694946</v>
       </c>
       <c r="I61">
-        <v>-1585.29628516013</v>
+        <v>1115051.576982139</v>
       </c>
       <c r="J61">
-        <v>1894.637369698966</v>
+        <v>4842932.713158683</v>
       </c>
       <c r="K61">
-        <v>1894.888533917653</v>
+        <v>3985961.125977064</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2583,31 +2574,31 @@
         <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>246.74800082229</v>
+        <v>1116577.820806979</v>
       </c>
       <c r="G62">
-        <v>-141.3647055424537</v>
+        <v>4841121.362168142</v>
       </c>
       <c r="H62">
-        <v>1436.447246332679</v>
+        <v>3985225.045694946</v>
       </c>
       <c r="I62">
-        <v>-1543.859302288707</v>
+        <v>1115085.844673664</v>
       </c>
       <c r="J62">
-        <v>1840.672360963773</v>
+        <v>4842884.061556905</v>
       </c>
       <c r="K62">
-        <v>2147.735766475897</v>
+        <v>3986174.02975153</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2618,31 +2609,31 @@
         <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>246.74800082229</v>
+        <v>1116577.820806979</v>
       </c>
       <c r="G63">
-        <v>-118.0214135027201</v>
+        <v>4841137.874976434</v>
       </c>
       <c r="H63">
-        <v>1436.447246332679</v>
+        <v>3985225.045694946</v>
       </c>
       <c r="I63">
-        <v>-1501.4019718354</v>
+        <v>1115120.956175566</v>
       </c>
       <c r="J63">
-        <v>1786.70735222858</v>
+        <v>4842835.409955127</v>
       </c>
       <c r="K63">
-        <v>2382.592278149941</v>
+        <v>3986371.784883304</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2653,31 +2644,31 @@
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>191.5052333860531</v>
+        <v>1116529.140272989</v>
       </c>
       <c r="G64">
-        <v>-94.67812146298647</v>
+        <v>4841154.387784725</v>
       </c>
       <c r="H64">
-        <v>1769.693341548163</v>
+        <v>3985424.299937593</v>
       </c>
       <c r="I64">
-        <v>-1457.899168679707</v>
+        <v>1115156.932265902</v>
       </c>
       <c r="J64">
-        <v>1732.742343493386</v>
+        <v>4842786.75835335</v>
       </c>
       <c r="K64">
-        <v>2599.458068939785</v>
+        <v>3986554.391372387</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2688,31 +2679,31 @@
         <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>159.0528787936327</v>
+        <v>1116500.542901349</v>
       </c>
       <c r="G65">
-        <v>-71.33482942325287</v>
+        <v>4841170.900593017</v>
       </c>
       <c r="H65">
-        <v>1968.191758710832</v>
+        <v>3985542.985954763</v>
       </c>
       <c r="I65">
-        <v>-1413.325149018151</v>
+        <v>1115193.794234364</v>
       </c>
       <c r="J65">
-        <v>1678.777334758193</v>
+        <v>4842738.10675157</v>
       </c>
       <c r="K65">
-        <v>2798.333138845431</v>
+        <v>3986721.849218778</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2723,31 +2714,31 @@
         <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>138.5665717497057</v>
+        <v>1116482.49014236</v>
       </c>
       <c r="G66">
-        <v>-47.99153738351925</v>
+        <v>4841187.413401308</v>
       </c>
       <c r="H66">
-        <v>2110.04516146186</v>
+        <v>3985627.802829552</v>
       </c>
       <c r="I66">
-        <v>-1367.653535129775</v>
+        <v>1115231.563894887</v>
       </c>
       <c r="J66">
-        <v>1624.812326022999</v>
+        <v>4842689.455149793</v>
       </c>
       <c r="K66">
-        <v>2979.217487866877</v>
+        <v>3986874.158422477</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2758,31 +2749,31 @@
         <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>124.2795043760733</v>
+        <v>1116469.900221522</v>
       </c>
       <c r="G67">
-        <v>-24.64824534378564</v>
+        <v>4841203.9262096</v>
       </c>
       <c r="H67">
-        <v>2220.506330186069</v>
+        <v>3985693.84968451</v>
       </c>
       <c r="I67">
-        <v>-1320.857299766512</v>
+        <v>1115270.263598553</v>
       </c>
       <c r="J67">
-        <v>1570.847317287806</v>
+        <v>4842640.803548016</v>
       </c>
       <c r="K67">
-        <v>3142.111116004124</v>
+        <v>3987011.318983485</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2793,31 +2784,31 @@
         <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>113.6209242664921</v>
+        <v>1116460.507763551</v>
       </c>
       <c r="G68">
-        <v>-1.304953304052037</v>
+        <v>4841220.439017892</v>
       </c>
       <c r="H68">
-        <v>2310.982595520443</v>
+        <v>3985747.947181783</v>
       </c>
       <c r="I68">
-        <v>-1272.908750159177</v>
+        <v>1115309.916246819</v>
       </c>
       <c r="J68">
-        <v>1516.882308552612</v>
+        <v>4842592.151946238</v>
       </c>
       <c r="K68">
-        <v>3287.01402325717</v>
+        <v>3987133.330901801</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2828,31 +2819,31 @@
         <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>105.2874030473847</v>
+        <v>1116453.164173036</v>
       </c>
       <c r="G69">
-        <v>22.03833873568158</v>
+        <v>4841236.951826183</v>
       </c>
       <c r="H69">
-        <v>2387.609387811391</v>
+        <v>3985793.763813046</v>
       </c>
       <c r="I69">
-        <v>-1223.779511629617</v>
+        <v>1115350.545305068</v>
       </c>
       <c r="J69">
-        <v>1462.917299817419</v>
+        <v>4842543.500344459</v>
       </c>
       <c r="K69">
-        <v>3413.926209626018</v>
+        <v>3987240.194177425</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2863,31 +2854,31 @@
         <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>98.54497759755048</v>
+        <v>1116447.222673605</v>
       </c>
       <c r="G70">
-        <v>45.3816307754152</v>
+        <v>4841253.464634474</v>
       </c>
       <c r="H70">
-        <v>2454.069174305084</v>
+        <v>3985833.501396215</v>
       </c>
       <c r="I70">
-        <v>-1173.440510799337</v>
+        <v>1115392.174816499</v>
       </c>
       <c r="J70">
-        <v>1408.952291082226</v>
+        <v>4842494.848742682</v>
       </c>
       <c r="K70">
-        <v>3522.847675110665</v>
+        <v>3987331.908810357</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2898,31 +2889,31 @@
         <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>92.94636201341171</v>
+        <v>1116442.289112003</v>
       </c>
       <c r="G71">
-        <v>68.7249228151488</v>
+        <v>4841269.977442767</v>
       </c>
       <c r="H71">
-        <v>2512.746589337342</v>
+        <v>3985868.585749972</v>
       </c>
       <c r="I71">
-        <v>-1121.861958384644</v>
+        <v>1115434.82941635</v>
       </c>
       <c r="J71">
-        <v>1354.987282347032</v>
+        <v>4842446.197140904</v>
       </c>
       <c r="K71">
-        <v>3613.778419711114</v>
+        <v>3987408.474800598</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2933,31 +2924,31 @@
         <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>88.20195654933703</v>
+        <v>1116438.108289749</v>
       </c>
       <c r="G72">
-        <v>92.06821485488244</v>
+        <v>4841286.490251058</v>
       </c>
       <c r="H72">
-        <v>2565.274683381649</v>
+        <v>3985899.99330657</v>
       </c>
       <c r="I72">
-        <v>-1069.013331568136</v>
+        <v>1115478.534346482</v>
       </c>
       <c r="J72">
-        <v>1301.022273611839</v>
+        <v>4842397.545539126</v>
       </c>
       <c r="K72">
-        <v>3686.718443427363</v>
+        <v>3987469.892148147</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2968,31 +2959,31 @@
         <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>84.11511410797162</v>
+        <v>1116434.50691926</v>
       </c>
       <c r="G73">
-        <v>115.411506894616</v>
+        <v>4841303.003059349</v>
       </c>
       <c r="H73">
-        <v>2612.820951135935</v>
+        <v>3985928.422133518</v>
       </c>
       <c r="I73">
-        <v>-1014.863355936117</v>
+        <v>1115523.31547031</v>
       </c>
       <c r="J73">
-        <v>1247.057264876645</v>
+        <v>4842348.893937347</v>
       </c>
       <c r="K73">
-        <v>3741.667746259412</v>
+        <v>3987516.160853005</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3003,31 +2994,31 @@
         <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>80.54708948242248</v>
+        <v>1116431.362736734</v>
       </c>
       <c r="G74">
-        <v>138.7547989343496</v>
+        <v>4841319.515867641</v>
       </c>
       <c r="H74">
-        <v>2656.249037794441</v>
+        <v>3985954.388620871</v>
       </c>
       <c r="I74">
-        <v>-959.3799869712243</v>
+        <v>1115569.199288114</v>
       </c>
       <c r="J74">
-        <v>1193.092256141452</v>
+        <v>4842300.24233557</v>
       </c>
       <c r="K74">
-        <v>3778.626328207262</v>
+        <v>3987547.28091517</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3038,31 +3029,31 @@
         <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>77.39686096851332</v>
+        <v>1116428.586720735</v>
       </c>
       <c r="G75">
-        <v>162.0980909740833</v>
+        <v>4841336.028675932</v>
       </c>
       <c r="H75">
-        <v>2696.215812104358</v>
+        <v>3985978.285523071</v>
       </c>
       <c r="I75">
-        <v>-902.530391089334</v>
+        <v>1115616.21295272</v>
       </c>
       <c r="J75">
-        <v>1139.127247406258</v>
+        <v>4842251.590733792</v>
       </c>
       <c r="K75">
-        <v>3797.594189270912</v>
+        <v>3987563.252334644</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3073,31 +3064,31 @@
         <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>74.58891447363534</v>
+        <v>1116426.112327413</v>
       </c>
       <c r="G76">
-        <v>185.4413830138169</v>
+        <v>4841352.541484225</v>
       </c>
       <c r="H76">
-        <v>2733.232524651978</v>
+        <v>3986000.418526668</v>
       </c>
       <c r="I76">
-        <v>-844.2809262095213</v>
+        <v>1115664.384285564</v>
       </c>
       <c r="J76">
-        <v>1085.162238671065</v>
+        <v>4842202.939132014</v>
       </c>
       <c r="K76">
-        <v>3798.571329450363</v>
+        <v>3987564.075111426</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3108,31 +3099,31 @@
         <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>72.06553109180743</v>
+        <v>1116423.888694236</v>
       </c>
       <c r="G77">
-        <v>208.7846750535505</v>
+        <v>4841369.054292516</v>
       </c>
       <c r="H77">
-        <v>2767.70490373043</v>
+        <v>3986021.030224402</v>
       </c>
       <c r="I77">
-        <v>-784.5971218455686</v>
+        <v>1115713.741793163</v>
       </c>
       <c r="J77">
-        <v>1031.197229935871</v>
+        <v>4842154.287530236</v>
       </c>
       <c r="K77">
-        <v>3781.557748745614</v>
+        <v>3987549.749245516</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3143,31 +3134,31 @@
         <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>69.7817418645656</v>
+        <v>1116421.876194061</v>
       </c>
       <c r="G78">
-        <v>232.1279670932841</v>
+        <v>4841385.567100807</v>
       </c>
       <c r="H78">
-        <v>2799.960335124251</v>
+        <v>3986040.316366523</v>
       </c>
       <c r="I78">
-        <v>-723.4436587072462</v>
+        <v>1115764.314683979</v>
       </c>
       <c r="J78">
-        <v>977.2322212006781</v>
+        <v>4842105.635928458</v>
       </c>
       <c r="K78">
-        <v>3746.553447156666</v>
+        <v>3987520.274736915</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3178,31 +3169,31 @@
         <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>67.701925340629</v>
+        <v>1116420.043436875</v>
       </c>
       <c r="G79">
-        <v>255.4712591330178</v>
+        <v>4841402.079909099</v>
       </c>
       <c r="H79">
-        <v>2830.266817819484</v>
+        <v>3986058.437194774</v>
       </c>
       <c r="I79">
-        <v>-660.7843477992974</v>
+        <v>1115816.132885704</v>
       </c>
       <c r="J79">
-        <v>923.2672124654846</v>
+        <v>4842056.98432668</v>
       </c>
       <c r="K79">
-        <v>3693.558424683519</v>
+        <v>3987475.651585622</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3213,31 +3204,31 @@
         <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>65.79745171320972</v>
+        <v>1116418.365193778</v>
       </c>
       <c r="G80">
-        <v>278.8145511727513</v>
+        <v>4841418.592717391</v>
       </c>
       <c r="H80">
-        <v>2858.846512132171</v>
+        <v>3986075.525543076</v>
       </c>
       <c r="I80">
-        <v>-596.5821090057494</v>
+        <v>1115869.227062976</v>
       </c>
       <c r="J80">
-        <v>869.302203730291</v>
+        <v>4842008.332724902</v>
       </c>
       <c r="K80">
-        <v>3622.572681326171</v>
+        <v>3987415.879791637</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3248,31 +3239,31 @@
         <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>64.04501355996925</v>
+        <v>1116416.820926011</v>
       </c>
       <c r="G81">
-        <v>302.1578432124849</v>
+        <v>4841435.105525682</v>
       </c>
       <c r="H81">
-        <v>2885.885631933287</v>
+        <v>3986091.69275228</v>
       </c>
       <c r="I81">
-        <v>-530.7989491468874</v>
+        <v>1115923.628635517</v>
       </c>
       <c r="J81">
-        <v>815.3371949950978</v>
+        <v>4841959.681123124</v>
       </c>
       <c r="K81">
-        <v>3533.596217084625</v>
+        <v>3987340.959354961</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3283,31 +3274,31 @@
         <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>62.42541877934734</v>
+        <v>1116415.393721285</v>
       </c>
       <c r="G82">
-        <v>325.5011352522186</v>
+        <v>4841451.618333974</v>
       </c>
       <c r="H82">
-        <v>2911.541804430208</v>
+        <v>3986107.033070722</v>
       </c>
       <c r="I82">
-        <v>-463.3959394958973</v>
+        <v>1115979.369796733</v>
       </c>
       <c r="J82">
-        <v>761.3721862599042</v>
+        <v>4841911.029521346</v>
       </c>
       <c r="K82">
-        <v>3426.629031958879</v>
+        <v>3987250.890275593</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3318,31 +3309,31 @@
         <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>60.92270183240453</v>
+        <v>1116414.069510591</v>
       </c>
       <c r="G83">
-        <v>348.8444272919521</v>
+        <v>4841468.131142265</v>
       </c>
       <c r="H83">
-        <v>2935.949637734239</v>
+        <v>3986121.626983177</v>
       </c>
       <c r="I83">
-        <v>-394.3331927418837</v>
+        <v>1116036.483532763</v>
       </c>
       <c r="J83">
-        <v>707.4071775247107</v>
+        <v>4841862.377919569</v>
       </c>
       <c r="K83">
-        <v>3301.671125948933</v>
+        <v>3987145.672553534</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3353,31 +3344,31 @@
         <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D84" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>59.52345869131941</v>
+        <v>1116412.836482152</v>
       </c>
       <c r="G84">
-        <v>372.1877193316858</v>
+        <v>4841484.643950556</v>
       </c>
       <c r="H84">
-        <v>2959.224995697658</v>
+        <v>3986135.543766869</v>
       </c>
       <c r="I84">
-        <v>-323.5698393856148</v>
+        <v>1116095.003641999</v>
       </c>
       <c r="J84">
-        <v>653.4421687895174</v>
+        <v>4841813.726317789</v>
       </c>
       <c r="K84">
-        <v>3158.722499054788</v>
+        <v>3987025.306188782</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3388,31 +3379,31 @@
         <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>58.21634189800729</v>
+        <v>1116411.684636464</v>
       </c>
       <c r="G85">
-        <v>395.5310113714194</v>
+        <v>4841501.156758849</v>
       </c>
       <c r="H85">
-        <v>2981.468324282332</v>
+        <v>3986148.843480369</v>
       </c>
       <c r="I85">
-        <v>-251.0640035540391</v>
+        <v>1116154.964755088</v>
       </c>
       <c r="J85">
-        <v>599.4771600543239</v>
+        <v>4841765.074716012</v>
       </c>
       <c r="K85">
-        <v>2997.783151276443</v>
+        <v>3986889.791181339</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3423,31 +3414,31 @@
         <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>56.99167211215193</v>
+        <v>1116410.605443985</v>
       </c>
       <c r="G86">
-        <v>418.874303411153</v>
+        <v>4841517.66956714</v>
       </c>
       <c r="H86">
-        <v>3002.767271293256</v>
+        <v>3986161.578529982</v>
       </c>
       <c r="I86">
-        <v>-176.7727782192562</v>
+        <v>1116216.402355423</v>
       </c>
       <c r="J86">
-        <v>545.5121513191306</v>
+        <v>4841716.423114235</v>
       </c>
       <c r="K86">
-        <v>2818.853082613899</v>
+        <v>3986739.127531204</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3458,31 +3449,31 @@
         <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>55.84113568209808</v>
+        <v>1116409.591578634</v>
       </c>
       <c r="G87">
-        <v>442.2175954508866</v>
+        <v>4841534.182375432</v>
       </c>
       <c r="H87">
-        <v>3023.198772295607</v>
+        <v>3986173.79491696</v>
       </c>
       <c r="I87">
-        <v>-100.6521998072783</v>
+        <v>1116279.352800145</v>
       </c>
       <c r="J87">
-        <v>491.547142583937</v>
+        <v>4841667.771512456</v>
       </c>
       <c r="K87">
-        <v>2621.932293067156</v>
+        <v>3986573.315238377</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3493,31 +3484,31 @@
         <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>54.75754660641335</v>
+        <v>1116408.636708027</v>
       </c>
       <c r="G88">
-        <v>465.5608874906202</v>
+        <v>4841550.695183722</v>
       </c>
       <c r="H88">
-        <v>3042.830728149391</v>
+        <v>3986185.533240534</v>
       </c>
       <c r="I88">
-        <v>-22.65722218155388</v>
+        <v>1116343.853341655</v>
       </c>
       <c r="J88">
-        <v>437.5821338487435</v>
+        <v>4841619.119910678</v>
       </c>
       <c r="K88">
-        <v>2407.020782636212</v>
+        <v>3986392.354302859</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3528,31 +3519,31 @@
         <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>53.73465729430813</v>
+        <v>1116407.73532672</v>
       </c>
       <c r="G89">
-        <v>488.9041795303539</v>
+        <v>4841567.207992014</v>
       </c>
       <c r="H89">
-        <v>3061.723366501393</v>
+        <v>3986196.82951197</v>
       </c>
       <c r="I89">
-        <v>57.25831001414057</v>
+        <v>1116409.94214966</v>
       </c>
       <c r="J89">
-        <v>383.6171251135502</v>
+        <v>4841570.4683089</v>
       </c>
       <c r="K89">
-        <v>2174.11855132107</v>
+        <v>3986196.244724649</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3563,31 +3554,31 @@
         <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>52.76700673130382</v>
+        <v>1116406.882622406</v>
       </c>
       <c r="G90">
-        <v>512.2474715700874</v>
+        <v>4841583.720800307</v>
       </c>
       <c r="H90">
-        <v>3079.930356097404</v>
+        <v>3986207.715820841</v>
       </c>
       <c r="I90">
-        <v>139.1416886692124</v>
+        <v>1116477.658333762</v>
       </c>
       <c r="J90">
-        <v>329.6521163783567</v>
+        <v>4841521.816707123</v>
       </c>
       <c r="K90">
-        <v>1923.225599121728</v>
+        <v>3985984.986503747</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3598,31 +3589,31 @@
         <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>51.84979761847227</v>
+        <v>1116406.074367652</v>
       </c>
       <c r="G91">
-        <v>535.5907636098211</v>
+        <v>4841600.233608598</v>
       </c>
       <c r="H91">
-        <v>3097.499725883954</v>
+        <v>3986218.22088458</v>
       </c>
       <c r="I91">
-        <v>223.041370192339</v>
+        <v>1116547.0419666</v>
       </c>
       <c r="J91">
-        <v>275.6871076431635</v>
+        <v>4841473.165105345</v>
       </c>
       <c r="K91">
-        <v>1654.341926038187</v>
+        <v>3985758.579640154</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3633,31 +3624,31 @@
         <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>50.97879617237477</v>
+        <v>1116405.306831602</v>
       </c>
       <c r="G92">
-        <v>558.9340556495547</v>
+        <v>4841616.746416889</v>
       </c>
       <c r="H92">
-        <v>3114.474628551652</v>
+        <v>3986228.370505006</v>
       </c>
       <c r="I92">
-        <v>309.00700418668</v>
+        <v>1116618.134107564</v>
       </c>
       <c r="J92">
-        <v>221.7220989079699</v>
+        <v>4841424.513503566</v>
       </c>
       <c r="K92">
-        <v>1367.467532070445</v>
+        <v>3985517.024133869</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3668,31 +3659,31 @@
         <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>50.15024980795167</v>
+        <v>1116404.576707437</v>
       </c>
       <c r="G93">
-        <v>582.2773476892883</v>
+        <v>4841633.259225181</v>
       </c>
       <c r="H93">
-        <v>3130.893979082398</v>
+        <v>3986238.187950137</v>
       </c>
       <c r="I93">
-        <v>397.0894628311995</v>
+        <v>1116690.976827096</v>
       </c>
       <c r="J93">
-        <v>167.7570901727764</v>
+        <v>4841375.861901789</v>
       </c>
       <c r="K93">
-        <v>1062.602417218504</v>
+        <v>3985260.319984892</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3703,31 +3694,31 @@
         <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>49.36081905206977</v>
+        <v>1116403.881052376</v>
       </c>
       <c r="G94">
-        <v>605.6206397290219</v>
+        <v>4841649.772033473</v>
       </c>
       <c r="H94">
-        <v>3146.792992079053</v>
+        <v>3986247.694275459</v>
       </c>
       <c r="I94">
-        <v>487.3408709854626</v>
+        <v>1116765.613231582</v>
       </c>
       <c r="J94">
-        <v>113.7920814375831</v>
+        <v>4841327.210300011</v>
       </c>
       <c r="K94">
-        <v>739.7465814823645</v>
+        <v>3984988.467193224</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3738,31 +3729,31 @@
         <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>48.60752086966513</v>
+        <v>1116403.217237736</v>
       </c>
       <c r="G95">
-        <v>628.9639317687555</v>
+        <v>4841666.284841765</v>
       </c>
       <c r="H95">
-        <v>3162.20363654044</v>
+        <v>3986256.908595851</v>
       </c>
       <c r="I95">
-        <v>579.8146370357535</v>
+        <v>1116842.087488865</v>
       </c>
       <c r="J95">
-        <v>59.82707270238957</v>
+        <v>4841278.558698233</v>
       </c>
       <c r="K95">
-        <v>398.9000248620243</v>
+        <v>3984701.465758863</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3773,31 +3764,31 @@
         <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>47.88768120912342</v>
+        <v>1116402.582907114</v>
       </c>
       <c r="G96">
-        <v>652.3072238084892</v>
+        <v>4841682.797650056</v>
       </c>
       <c r="H96">
-        <v>3177.155022849375</v>
+        <v>3986265.848316972</v>
       </c>
       <c r="I96">
-        <v>674.5654845007273</v>
+        <v>1116920.444854378</v>
       </c>
       <c r="J96">
-        <v>5.862063967196045</v>
+        <v>4841229.907096455</v>
       </c>
       <c r="K96">
-        <v>40.06274735748497</v>
+        <v>3984399.315681811</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3808,31 +3799,31 @@
         <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>47.19889504584654</v>
+        <v>1116401.975941174</v>
       </c>
       <c r="G97">
-        <v>675.6505158482228</v>
+        <v>4841699.310458347</v>
       </c>
       <c r="H97">
-        <v>3191.673733748407</v>
+        <v>3986274.529333151</v>
       </c>
       <c r="I97">
-        <v>771.6494844153439</v>
+        <v>1117000.73169793</v>
       </c>
       <c r="J97">
-        <v>-48.10294476799724</v>
+        <v>4841181.255494677</v>
       </c>
       <c r="K97">
-        <v>-336.7652510312528</v>
+        <v>3984082.016962068</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3843,31 +3834,31 @@
         <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>46.5389925632369</v>
+        <v>1116401.394427852</v>
       </c>
       <c r="G98">
-        <v>698.9938078879563</v>
+        <v>4841715.823266639</v>
       </c>
       <c r="H98">
-        <v>3205.784108758795</v>
+        <v>3986282.966197458</v>
       </c>
       <c r="I98">
-        <v>871.1240885122163</v>
+        <v>1117082.995531141</v>
       </c>
       <c r="J98">
-        <v>-102.0679535031908</v>
+        <v>4841132.603892899</v>
       </c>
       <c r="K98">
-        <v>-731.5839703041912</v>
+        <v>3983749.569599633</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3878,31 +3869,31 @@
         <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>45.90601038747248</v>
+        <v>1116400.836637</v>
       </c>
       <c r="G99">
-        <v>722.33709992769</v>
+        <v>4841732.33607493</v>
       </c>
       <c r="H99">
-        <v>3219.508489686866</v>
+        <v>3986291.172268488</v>
       </c>
       <c r="I99">
-        <v>973.048163220017</v>
+        <v>1117167.285035564</v>
       </c>
       <c r="J99">
-        <v>-156.0329622383843</v>
+        <v>4841083.952291121</v>
       </c>
       <c r="K99">
-        <v>-1144.39341046133</v>
+        <v>3983401.973594505</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3913,31 +3904,31 @@
         <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>45.2981670073282</v>
+        <v>1116400.300998731</v>
       </c>
       <c r="G100">
-        <v>745.6803919674236</v>
+        <v>4841748.848883222</v>
       </c>
       <c r="H100">
-        <v>3232.867433436516</v>
+        <v>3986299.159837607</v>
       </c>
       <c r="I100">
-        <v>1077.482024499068</v>
+        <v>1117253.650091489</v>
       </c>
       <c r="J100">
-        <v>-209.9979709735778</v>
+        <v>4841035.300689342</v>
       </c>
       <c r="K100">
-        <v>-1575.193571502668</v>
+        <v>3983039.228946687</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3948,31 +3939,31 @@
         <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>44.71384167813503</v>
+        <v>1116399.786084827</v>
       </c>
       <c r="G101">
-        <v>769.0236840071572</v>
+        <v>4841765.361691514</v>
       </c>
       <c r="H101">
-        <v>3245.879897217199</v>
+        <v>3986306.940239697</v>
       </c>
       <c r="I101">
-        <v>1184.487473534724</v>
+        <v>1117342.141807461</v>
       </c>
       <c r="J101">
-        <v>-263.9629797087708</v>
+        <v>4840986.649087565</v>
       </c>
       <c r="K101">
-        <v>-2023.984453428202</v>
+        <v>3982661.335656176</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3983,31 +3974,31 @@
         <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>44.15155624099159</v>
+        <v>1116399.290592718</v>
       </c>
       <c r="G102">
-        <v>792.3669760468908</v>
+        <v>4841781.874499805</v>
       </c>
       <c r="H102">
-        <v>3258.563400335748</v>
+        <v>3986314.523949887</v>
       </c>
       <c r="I102">
-        <v>1294.127833309677</v>
+        <v>1117432.812550528</v>
       </c>
       <c r="J102">
-        <v>-317.9279884439644</v>
+        <v>4840937.997485788</v>
       </c>
       <c r="K102">
-        <v>-2490.766056237938</v>
+        <v>3982268.293722974</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4018,31 +4009,31 @@
         <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>43.60995939287343</v>
+        <v>1116398.813331621</v>
       </c>
       <c r="G103">
-        <v>815.7102680866244</v>
+        <v>4841798.387308097</v>
       </c>
       <c r="H103">
-        <v>3270.934166037238</v>
+        <v>3986321.920668367</v>
       </c>
       <c r="I103">
-        <v>1406.467986076805</v>
+        <v>1117525.715977228</v>
       </c>
       <c r="J103">
-        <v>-371.8929971791579</v>
+        <v>4840889.345884008</v>
       </c>
       <c r="K103">
-        <v>-2975.538379931875</v>
+        <v>3981860.10314708</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4053,31 +4044,31 @@
         <v>12</v>
       </c>
       <c r="C104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>43.08781302657399</v>
+        <v>1116398.353210503</v>
       </c>
       <c r="G104">
-        <v>839.053560126358</v>
+        <v>4841814.900116389</v>
       </c>
       <c r="H104">
-        <v>3283.007246276239</v>
+        <v>3986329.139394989</v>
       </c>
       <c r="I104">
-        <v>1521.574411754779</v>
+        <v>1117620.90706534</v>
       </c>
       <c r="J104">
-        <v>-425.8580059143515</v>
+        <v>4840840.694282231</v>
       </c>
       <c r="K104">
-        <v>-3478.30142451001</v>
+        <v>3981436.763928494</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4088,31 +4079,31 @@
         <v>12</v>
       </c>
       <c r="C105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>42.5839803261689</v>
+        <v>1116397.909227588</v>
       </c>
       <c r="G105">
-        <v>862.3968521660917</v>
+        <v>4841831.41292468</v>
       </c>
       <c r="H105">
-        <v>3294.796631825663</v>
+        <v>3986336.188495107</v>
       </c>
       <c r="I105">
-        <v>1639.515227269104</v>
+        <v>1117718.442146423</v>
       </c>
       <c r="J105">
-        <v>-479.823014649545</v>
+        <v>4840792.042680454</v>
       </c>
       <c r="K105">
-        <v>-3999.055189972345</v>
+        <v>3980998.276067217</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4123,31 +4114,31 @@
         <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>42.09741535749757</v>
+        <v>1116397.480461189</v>
       </c>
       <c r="G106">
-        <v>885.7401442058252</v>
+        <v>4841847.925732972</v>
       </c>
       <c r="H106">
-        <v>3306.315349743491</v>
+        <v>3986343.075757847</v>
       </c>
       <c r="I106">
-        <v>1760.360226861905</v>
+        <v>1117818.378939147</v>
       </c>
       <c r="J106">
-        <v>-533.788023384738</v>
+        <v>4840743.391078675</v>
       </c>
       <c r="K106">
-        <v>-4537.799676318876</v>
+        <v>3980544.639563248</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4158,31 +4149,31 @@
         <v>12</v>
       </c>
       <c r="C107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>41.62715393676148</v>
+        <v>1116397.066061655</v>
       </c>
       <c r="G107">
-        <v>909.0834362455588</v>
+        <v>4841864.438541263</v>
       </c>
       <c r="H107">
-        <v>3317.575549900129</v>
+        <v>3986349.808447852</v>
       </c>
       <c r="I107">
-        <v>1884.180923394321</v>
+        <v>1117920.776583452</v>
       </c>
       <c r="J107">
-        <v>-587.7530321199315</v>
+        <v>4840694.739476897</v>
       </c>
       <c r="K107">
-        <v>-5094.534883549611</v>
+        <v>3980075.854416587</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4190,34 +4181,34 @@
         <v>33</v>
       </c>
       <c r="B108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C108" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D108" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E108">
         <v>152.142</v>
       </c>
       <c r="F108">
-        <v>156.8721742286666</v>
+        <v>1116578.989961556</v>
       </c>
       <c r="G108">
-        <v>-104.5945016615898</v>
+        <v>4841117.805722237</v>
       </c>
       <c r="H108">
-        <v>1329.946604368225</v>
+        <v>3985227.143897143</v>
       </c>
       <c r="I108">
-        <v>-1214.190917056206</v>
+        <v>1114861.070412901</v>
       </c>
       <c r="J108">
-        <v>2230.440616273133</v>
+        <v>4843215.194883756</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>3984373.619681177</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4225,34 +4216,34 @@
         <v>33</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C109" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D109" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E109">
         <v>153.142</v>
       </c>
       <c r="F109">
-        <v>156.8721742286666</v>
+        <v>1116578.989961556</v>
       </c>
       <c r="G109">
-        <v>-104.5945016615898</v>
+        <v>4841117.805722237</v>
       </c>
       <c r="H109">
-        <v>1329.946604368225</v>
+        <v>3985227.143897143</v>
       </c>
       <c r="I109">
-        <v>-1190.219555282053</v>
+        <v>1114890.684401741</v>
       </c>
       <c r="J109">
-        <v>2176.183377050035</v>
+        <v>4843166.543376684</v>
       </c>
       <c r="K109">
-        <v>200.3354388719662</v>
+        <v>3984677.415924654</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4260,34 +4251,34 @@
         <v>33</v>
       </c>
       <c r="B110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D110" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E110">
         <v>154.142</v>
       </c>
       <c r="F110">
-        <v>156.8721742286666</v>
+        <v>1116578.989961556</v>
       </c>
       <c r="G110">
-        <v>-104.5945016615898</v>
+        <v>4841117.805722237</v>
       </c>
       <c r="H110">
-        <v>1329.946604368225</v>
+        <v>3985227.143897143</v>
       </c>
       <c r="I110">
-        <v>-1165.657920777459</v>
+        <v>1114921.027607812</v>
       </c>
       <c r="J110">
-        <v>2121.926137826937</v>
+        <v>4843117.891869611</v>
       </c>
       <c r="K110">
-        <v>390.6812344570913</v>
+        <v>3984966.06349488</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4295,34 +4286,34 @@
         <v>33</v>
       </c>
       <c r="B111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D111" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E111">
         <v>155.142</v>
       </c>
       <c r="F111">
-        <v>156.8721742286666</v>
+        <v>1116578.989961556</v>
       </c>
       <c r="G111">
-        <v>-104.5945016615898</v>
+        <v>4841117.805722237</v>
       </c>
       <c r="H111">
-        <v>1329.946604368225</v>
+        <v>3985227.143897143</v>
       </c>
       <c r="I111">
-        <v>-1140.491478619479</v>
+        <v>1114952.117987417</v>
       </c>
       <c r="J111">
-        <v>2067.668898603838</v>
+        <v>4843069.24036254</v>
       </c>
       <c r="K111">
-        <v>571.0373867553768</v>
+        <v>3985239.562391854</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4330,34 +4321,34 @@
         <v>33</v>
       </c>
       <c r="B112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D112" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E112">
         <v>156.142</v>
       </c>
       <c r="F112">
-        <v>156.8721742286666</v>
+        <v>1116578.989961556</v>
       </c>
       <c r="G112">
-        <v>-104.5945016615898</v>
+        <v>4841117.805722237</v>
       </c>
       <c r="H112">
-        <v>1329.946604368225</v>
+        <v>3985227.143897143</v>
       </c>
       <c r="I112">
-        <v>-1114.705335976061</v>
+        <v>1114983.973939017</v>
       </c>
       <c r="J112">
-        <v>2013.411659380741</v>
+        <v>4843020.588855468</v>
       </c>
       <c r="K112">
-        <v>741.4038957668216</v>
+        <v>3985497.912615576</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4365,34 +4356,34 @@
         <v>33</v>
       </c>
       <c r="B113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D113" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E113">
         <v>157.142</v>
       </c>
       <c r="F113">
-        <v>156.8721742286666</v>
+        <v>1116578.989961556</v>
       </c>
       <c r="G113">
-        <v>-104.5945016615898</v>
+        <v>4841117.805722237</v>
       </c>
       <c r="H113">
-        <v>1329.946604368225</v>
+        <v>3985227.143897143</v>
       </c>
       <c r="I113">
-        <v>-1088.284233292864</v>
+        <v>1115016.614314119</v>
       </c>
       <c r="J113">
-        <v>1959.154420157643</v>
+        <v>4842971.937348396</v>
       </c>
       <c r="K113">
-        <v>901.7807614914269</v>
+        <v>3985741.114166047</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4400,34 +4391,34 @@
         <v>33</v>
       </c>
       <c r="B114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D114" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E114">
         <v>158.142</v>
       </c>
       <c r="F114">
-        <v>156.8721742286666</v>
+        <v>1116578.989961556</v>
       </c>
       <c r="G114">
-        <v>-104.5945016615898</v>
+        <v>4841117.805722237</v>
       </c>
       <c r="H114">
-        <v>1329.946604368225</v>
+        <v>3985227.143897143</v>
       </c>
       <c r="I114">
-        <v>-1061.212535263063</v>
+        <v>1115050.058428428</v>
       </c>
       <c r="J114">
-        <v>1904.897180934544</v>
+        <v>4842923.285841323</v>
       </c>
       <c r="K114">
-        <v>1052.167983929192</v>
+        <v>3985969.167043265</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4435,34 +4426,34 @@
         <v>33</v>
       </c>
       <c r="B115" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C115" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D115" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E115">
         <v>159.142</v>
       </c>
       <c r="F115">
-        <v>156.8721742286666</v>
+        <v>1116578.989961556</v>
       </c>
       <c r="G115">
-        <v>-104.5945016615898</v>
+        <v>4841117.805722237</v>
       </c>
       <c r="H115">
-        <v>1329.946604368225</v>
+        <v>3985227.143897143</v>
       </c>
       <c r="I115">
-        <v>-1033.474221574784</v>
+        <v>1115084.326073285</v>
       </c>
       <c r="J115">
-        <v>1850.639941711446</v>
+        <v>4842874.634334251</v>
       </c>
       <c r="K115">
-        <v>1192.565563080116</v>
+        <v>3986182.071247232</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4470,34 +4461,34 @@
         <v>33</v>
       </c>
       <c r="B116" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C116" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D116" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E116">
         <v>160.142</v>
       </c>
       <c r="F116">
-        <v>156.8721742286666</v>
+        <v>1116578.989961556</v>
       </c>
       <c r="G116">
-        <v>-87.3230052957331</v>
+        <v>4841134.318518398</v>
       </c>
       <c r="H116">
-        <v>1329.946604368225</v>
+        <v>3985227.143897143</v>
       </c>
       <c r="I116">
-        <v>-1005.052877430712</v>
+        <v>1115119.43752737</v>
       </c>
       <c r="J116">
-        <v>1796.382702488349</v>
+        <v>4842825.982827179</v>
       </c>
       <c r="K116">
-        <v>1322.9734989442</v>
+        <v>3986379.826777947</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4505,34 +4496,34 @@
         <v>33</v>
       </c>
       <c r="B117" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C117" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D117" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E117">
         <v>161.142</v>
       </c>
       <c r="F117">
-        <v>121.7511073537522</v>
+        <v>1116530.309376593</v>
       </c>
       <c r="G117">
-        <v>-70.05150892987638</v>
+        <v>4841150.831314558</v>
       </c>
       <c r="H117">
-        <v>1638.48526729672</v>
+        <v>3985426.398244697</v>
       </c>
       <c r="I117">
-        <v>-975.9316838342484</v>
+        <v>1115155.41356871</v>
       </c>
       <c r="J117">
-        <v>1742.125463265251</v>
+        <v>4842777.331320108</v>
       </c>
       <c r="K117">
-        <v>1443.391791521444</v>
+        <v>3986562.43363541</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4540,34 +4531,34 @@
         <v>33</v>
       </c>
       <c r="B118" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D118" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E118">
         <v>162.142</v>
       </c>
       <c r="F118">
-        <v>101.1192424276444</v>
+        <v>1116501.711975009</v>
       </c>
       <c r="G118">
-        <v>-52.78001256401967</v>
+        <v>4841167.344110719</v>
       </c>
       <c r="H118">
-        <v>1822.266674203201</v>
+        <v>3985545.084324354</v>
       </c>
       <c r="I118">
-        <v>-946.0934076364792</v>
+        <v>1115192.275486971</v>
       </c>
       <c r="J118">
-        <v>1687.868224042152</v>
+        <v>4842728.679813035</v>
       </c>
       <c r="K118">
-        <v>1553.820440811848</v>
+        <v>3986729.891819622</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4575,34 +4566,34 @@
         <v>33</v>
       </c>
       <c r="B119" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D119" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E119">
         <v>163.142</v>
       </c>
       <c r="F119">
-        <v>88.09489565609168</v>
+        <v>1116483.659197117</v>
       </c>
       <c r="G119">
-        <v>-35.50851619816296</v>
+        <v>4841183.856906881</v>
       </c>
       <c r="H119">
-        <v>1953.602824408827</v>
+        <v>3985629.901243799</v>
       </c>
       <c r="I119">
-        <v>-915.5203913380502</v>
+        <v>1115230.045096057</v>
       </c>
       <c r="J119">
-        <v>1633.610984819054</v>
+        <v>4842680.028305963</v>
       </c>
       <c r="K119">
-        <v>1654.259446815412</v>
+        <v>3986882.201330581</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4610,34 +4601,34 @@
         <v>33</v>
       </c>
       <c r="B120" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C120" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D120" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E120">
         <v>164.142</v>
       </c>
       <c r="F120">
-        <v>79.01176908653818</v>
+        <v>1116471.069263097</v>
       </c>
       <c r="G120">
-        <v>-18.23701983230624</v>
+        <v>4841200.36970304</v>
       </c>
       <c r="H120">
-        <v>2055.874214210555</v>
+        <v>3985695.948133531</v>
       </c>
       <c r="I120">
-        <v>-884.194542639932</v>
+        <v>1115268.744747019</v>
       </c>
       <c r="J120">
-        <v>1579.353745595956</v>
+        <v>4842631.376798891</v>
       </c>
       <c r="K120">
-        <v>1744.708809532135</v>
+        <v>3987019.36216829</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4645,34 +4636,34 @@
         <v>33</v>
       </c>
       <c r="B121" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C121" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D121" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E121">
         <v>165.142</v>
       </c>
       <c r="F121">
-        <v>72.2354846570459</v>
+        <v>1116461.676795291</v>
       </c>
       <c r="G121">
-        <v>-0.9655234664495361</v>
+        <v>4841216.882499201</v>
       </c>
       <c r="H121">
-        <v>2139.642415350258</v>
+        <v>3985750.045659285</v>
       </c>
       <c r="I121">
-        <v>-852.0973237368752</v>
+        <v>1115308.397341284</v>
       </c>
       <c r="J121">
-        <v>1525.096506372858</v>
+        <v>4842582.725291819</v>
       </c>
       <c r="K121">
-        <v>1825.168528962018</v>
+        <v>3987141.374332746</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4680,34 +4671,34 @@
         <v>33</v>
       </c>
       <c r="B122" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C122" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D122" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E122">
         <v>166.142</v>
       </c>
       <c r="F122">
-        <v>66.93737651324933</v>
+        <v>1116454.333197087</v>
       </c>
       <c r="G122">
-        <v>16.30597289940718</v>
+        <v>4841233.395295362</v>
       </c>
       <c r="H122">
-        <v>2210.587966933274</v>
+        <v>3985795.86231467</v>
       </c>
       <c r="I122">
-        <v>-819.2097403472304</v>
+        <v>1115349.026344202</v>
       </c>
       <c r="J122">
-        <v>1470.83926714976</v>
+        <v>4842534.073784746</v>
       </c>
       <c r="K122">
-        <v>1895.638605105061</v>
+        <v>3987248.237823951</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4715,34 +4706,34 @@
         <v>33</v>
       </c>
       <c r="B123" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C123" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D123" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E123">
         <v>167.142</v>
       </c>
       <c r="F123">
-        <v>62.65082125701462</v>
+        <v>1116448.391691435</v>
       </c>
       <c r="G123">
-        <v>33.5774692652639</v>
+        <v>4841249.908091523</v>
       </c>
       <c r="H123">
-        <v>2272.120311820971</v>
+        <v>3985835.599918761</v>
       </c>
       <c r="I123">
-        <v>-785.5123304726374</v>
+        <v>1115390.655798939</v>
       </c>
       <c r="J123">
-        <v>1416.582027926662</v>
+        <v>4842485.422277674</v>
       </c>
       <c r="K123">
-        <v>1956.119037961264</v>
+        <v>3987339.952641902</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4750,34 +4741,34 @@
         <v>33</v>
       </c>
       <c r="B124" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C124" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D124" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E124">
         <v>168.142</v>
       </c>
       <c r="F124">
-        <v>59.09145300913617</v>
+        <v>1116443.458124666</v>
       </c>
       <c r="G124">
-        <v>50.8489656311206</v>
+        <v>4841266.420887684</v>
       </c>
       <c r="H124">
-        <v>2326.447283503705</v>
+        <v>3985870.684290989</v>
       </c>
       <c r="I124">
-        <v>-750.9851528809314</v>
+        <v>1115433.3103407</v>
       </c>
       <c r="J124">
-        <v>1362.324788703564</v>
+        <v>4842436.770770603</v>
       </c>
       <c r="K124">
-        <v>2006.609827530626</v>
+        <v>3987416.518786604</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4785,34 +4776,34 @@
         <v>33</v>
       </c>
       <c r="B125" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D125" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E125">
         <v>169.142</v>
       </c>
       <c r="F125">
-        <v>56.07515622824436</v>
+        <v>1116439.277298035</v>
       </c>
       <c r="G125">
-        <v>68.12046199697734</v>
+        <v>4841282.933683844</v>
       </c>
       <c r="H125">
-        <v>2375.08085531535</v>
+        <v>3985902.091864123</v>
       </c>
       <c r="I125">
-        <v>-715.6077753054502</v>
+        <v>1115477.015211311</v>
       </c>
       <c r="J125">
-        <v>1308.067549480466</v>
+        <v>4842388.119263531</v>
       </c>
       <c r="K125">
-        <v>2047.110973813149</v>
+        <v>3987477.936258053</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4820,34 +4811,34 @@
         <v>33</v>
       </c>
       <c r="B126" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C126" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D126" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E126">
         <v>170.142</v>
       </c>
       <c r="F126">
-        <v>53.47691082252486</v>
+        <v>1116435.675923775</v>
       </c>
       <c r="G126">
-        <v>85.39195836283403</v>
+        <v>4841299.446480005</v>
       </c>
       <c r="H126">
-        <v>2419.101961911248</v>
+        <v>3985930.520706039</v>
       </c>
       <c r="I126">
-        <v>-679.3592623537635</v>
+        <v>1115521.796274153</v>
       </c>
       <c r="J126">
-        <v>1253.810310257368</v>
+        <v>4842339.467756458</v>
       </c>
       <c r="K126">
-        <v>2077.62247680883</v>
+        <v>3987524.20505625</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4855,34 +4846,34 @@
         <v>33</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C127" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D127" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E127">
         <v>171.142</v>
       </c>
       <c r="F127">
-        <v>51.20850832748526</v>
+        <v>1116432.531737956</v>
       </c>
       <c r="G127">
-        <v>102.6634547286907</v>
+        <v>4841315.959276166</v>
       </c>
       <c r="H127">
-        <v>2459.310216362044</v>
+        <v>3985956.487207063</v>
       </c>
       <c r="I127">
-        <v>-642.2181631186621</v>
+        <v>1115567.68002947</v>
       </c>
       <c r="J127">
-        <v>1199.55307103427</v>
+        <v>4842290.816249386</v>
       </c>
       <c r="K127">
-        <v>2098.144336517672</v>
+        <v>3987555.325181196</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4890,34 +4881,34 @@
         <v>33</v>
       </c>
       <c r="B128" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C128" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D128" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E128">
         <v>172.142</v>
       </c>
       <c r="F128">
-        <v>49.20572332153911</v>
+        <v>1116429.755719051</v>
       </c>
       <c r="G128">
-        <v>119.9349510945475</v>
+        <v>4841332.472072327</v>
       </c>
       <c r="H128">
-        <v>2496.313786048803</v>
+        <v>3985980.384121845</v>
       </c>
       <c r="I128">
-        <v>-604.1624984840809</v>
+        <v>1115614.693630048</v>
       </c>
       <c r="J128">
-        <v>1145.295831811172</v>
+        <v>4842242.164742314</v>
       </c>
       <c r="K128">
-        <v>2108.676552939674</v>
+        <v>3987571.29663289</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4925,34 +4916,34 @@
         <v>33</v>
       </c>
       <c r="B129" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C129" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D129" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E129">
         <v>173.142</v>
       </c>
       <c r="F129">
-        <v>47.42054706762281</v>
+        <v>1116427.281323138</v>
       </c>
       <c r="G129">
-        <v>137.2064474604042</v>
+        <v>4841348.984868487</v>
       </c>
       <c r="H129">
-        <v>2530.586016569812</v>
+        <v>3986002.517137095</v>
       </c>
       <c r="I129">
-        <v>-565.1697481184425</v>
+        <v>1115662.86489729</v>
       </c>
       <c r="J129">
-        <v>1091.038592588074</v>
+        <v>4842193.513235242</v>
       </c>
       <c r="K129">
-        <v>2109.219126074835</v>
+        <v>3987572.119411332</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4960,34 +4951,34 @@
         <v>33</v>
       </c>
       <c r="B130" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C130" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D130" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E130">
         <v>174.142</v>
       </c>
       <c r="F130">
-        <v>45.81628427237964</v>
+        <v>1116425.057687633</v>
       </c>
       <c r="G130">
-        <v>154.4779438262609</v>
+        <v>4841365.497664648</v>
       </c>
       <c r="H130">
-        <v>2562.502554832481</v>
+        <v>3986023.128845681</v>
       </c>
       <c r="I130">
-        <v>-525.216837147723</v>
+        <v>1115712.22233767</v>
       </c>
       <c r="J130">
-        <v>1036.781353364976</v>
+        <v>4842144.86172817</v>
       </c>
       <c r="K130">
-        <v>2099.772055923157</v>
+        <v>3987557.793516521</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4995,34 +4986,34 @@
         <v>33</v>
       </c>
       <c r="B131" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C131" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D131" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E131">
         <v>175.142</v>
       </c>
       <c r="F131">
-        <v>44.36434553178795</v>
+        <v>1116423.045185351</v>
       </c>
       <c r="G131">
-        <v>171.7494401921176</v>
+        <v>4841382.010460808</v>
       </c>
       <c r="H131">
-        <v>2592.366513682459</v>
+        <v>3986042.414997956</v>
       </c>
       <c r="I131">
-        <v>-484.2801225003534</v>
+        <v>1115762.795159613</v>
       </c>
       <c r="J131">
-        <v>982.524114141878</v>
+        <v>4842096.210221098</v>
       </c>
       <c r="K131">
-        <v>2080.335342484637</v>
+        <v>3987528.31894846</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5030,34 +5021,34 @@
         <v>33</v>
       </c>
       <c r="B132" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C132" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D132" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E132">
         <v>176.142</v>
       </c>
       <c r="F132">
-        <v>43.04208420031066</v>
+        <v>1116421.212426246</v>
       </c>
       <c r="G132">
-        <v>189.0209365579744</v>
+        <v>4841398.52325697</v>
       </c>
       <c r="H132">
-        <v>2620.426022205152</v>
+        <v>3986060.535835748</v>
       </c>
       <c r="I132">
-        <v>-442.3353789158793</v>
+        <v>1115814.613290769</v>
       </c>
       <c r="J132">
-        <v>928.26687491878</v>
+        <v>4842047.558714026</v>
       </c>
       <c r="K132">
-        <v>2050.908985759278</v>
+        <v>3987483.695707147</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5065,34 +5056,34 @@
         <v>33</v>
       </c>
       <c r="B133" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C133" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D133" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E133">
         <v>177.142</v>
       </c>
       <c r="F133">
-        <v>41.83129863082763</v>
+        <v>1116419.534181391</v>
       </c>
       <c r="G133">
-        <v>206.292432923831</v>
+        <v>4841415.036053129</v>
       </c>
       <c r="H133">
-        <v>2646.886769372916</v>
+        <v>3986077.624193047</v>
       </c>
       <c r="I133">
-        <v>-399.3577846090943</v>
+        <v>1115867.707395733</v>
       </c>
       <c r="J133">
-        <v>874.0096356956818</v>
+        <v>4841998.907206954</v>
       </c>
       <c r="K133">
-        <v>2011.492985747079</v>
+        <v>3987423.923792582</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5100,34 +5091,34 @@
         <v>33</v>
       </c>
       <c r="B134" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C134" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D134" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E134">
         <v>178.142</v>
       </c>
       <c r="F134">
-        <v>40.71717092813514</v>
+        <v>1116417.989912007</v>
       </c>
       <c r="G134">
-        <v>223.5639292896877</v>
+        <v>4841431.54884929</v>
       </c>
       <c r="H134">
-        <v>2671.921162843618</v>
+        <v>3986093.791410763</v>
       </c>
       <c r="I134">
-        <v>-355.3219065811665</v>
+        <v>1115922.108894186</v>
       </c>
       <c r="J134">
-        <v>819.752396472584</v>
+        <v>4841950.255699881</v>
       </c>
       <c r="K134">
-        <v>1962.087342448039</v>
+        <v>3987349.003204765</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5135,34 +5126,34 @@
         <v>33</v>
       </c>
       <c r="B135" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C135" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D135" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E135">
         <v>179.142</v>
       </c>
       <c r="F135">
-        <v>39.68749954778404</v>
+        <v>1116416.562705787</v>
       </c>
       <c r="G135">
-        <v>240.8354256555445</v>
+        <v>4841448.061645452</v>
       </c>
       <c r="H135">
-        <v>2695.675143075387</v>
+        <v>3986109.131737282</v>
       </c>
       <c r="I135">
-        <v>-310.2016855690655</v>
+        <v>1115977.84997949</v>
       </c>
       <c r="J135">
-        <v>765.4951572494858</v>
+        <v>4841901.604192809</v>
       </c>
       <c r="K135">
-        <v>1902.692055862159</v>
+        <v>3987258.933943696</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5170,34 +5161,34 @@
         <v>33</v>
       </c>
       <c r="B136" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C136" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D136" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E136">
         <v>180.142</v>
       </c>
       <c r="F136">
-        <v>38.73213426039937</v>
+        <v>1116415.238493706</v>
       </c>
       <c r="G136">
-        <v>258.1069220214011</v>
+        <v>4841464.574441612</v>
       </c>
       <c r="H136">
-        <v>2718.273338105213</v>
+        <v>3986123.72565742</v>
       </c>
       <c r="I136">
-        <v>-263.9704206243838</v>
+        <v>1116034.963637739</v>
       </c>
       <c r="J136">
-        <v>711.2379180263877</v>
+        <v>4841852.952685738</v>
       </c>
       <c r="K136">
-        <v>1833.307125989438</v>
+        <v>3987153.716009376</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5205,34 +5196,34 @@
         <v>33</v>
       </c>
       <c r="B137" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C137" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D137" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E137">
         <v>181.142</v>
       </c>
       <c r="F137">
-        <v>37.84255333943921</v>
+        <v>1116414.005463976</v>
       </c>
       <c r="G137">
-        <v>275.3784183872579</v>
+        <v>4841481.087237773</v>
       </c>
       <c r="H137">
-        <v>2739.823021442302</v>
+        <v>3986137.642448439</v>
       </c>
       <c r="I137">
-        <v>-216.6007533124233</v>
+        <v>1116093.483667278</v>
       </c>
       <c r="J137">
-        <v>656.9806788032898</v>
+        <v>4841804.301178665</v>
       </c>
       <c r="K137">
-        <v>1753.932552829878</v>
+        <v>3987033.349401804</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5240,34 +5231,34 @@
         <v>33</v>
       </c>
       <c r="B138" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C138" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D138" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E138">
         <v>182.142</v>
       </c>
       <c r="F138">
-        <v>37.01154254034724</v>
+        <v>1116412.853617082</v>
       </c>
       <c r="G138">
-        <v>292.6499147531146</v>
+        <v>4841497.600033934</v>
       </c>
       <c r="H138">
-        <v>2760.417191814072</v>
+        <v>3986150.942168941</v>
       </c>
       <c r="I138">
-        <v>-168.0646515222006</v>
+        <v>1116153.444698708</v>
       </c>
       <c r="J138">
-        <v>602.7234395801917</v>
+        <v>4841755.649671593</v>
       </c>
       <c r="K138">
-        <v>1664.568336383478</v>
+        <v>3986897.83412098</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5275,34 +5266,34 @@
         <v>33</v>
       </c>
       <c r="B139" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C139" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D139" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E139">
         <v>183.142</v>
       </c>
       <c r="F139">
-        <v>36.23294813885643</v>
+        <v>1116411.774423473</v>
       </c>
       <c r="G139">
-        <v>309.9214111189713</v>
+        <v>4841514.112830094</v>
       </c>
       <c r="H139">
-        <v>2780.136998668181</v>
+        <v>3986163.677225259</v>
       </c>
       <c r="I139">
-        <v>-118.3333928777884</v>
+        <v>1116214.882215373</v>
       </c>
       <c r="J139">
-        <v>548.4662003570938</v>
+        <v>4841706.998164522</v>
       </c>
       <c r="K139">
-        <v>1565.214476650237</v>
+        <v>3986747.170166904</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5310,34 +5301,34 @@
         <v>33</v>
       </c>
       <c r="B140" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C140" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D140" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E140">
         <v>184.142</v>
       </c>
       <c r="F140">
-        <v>35.50148465906992</v>
+        <v>1116410.76055706</v>
       </c>
       <c r="G140">
-        <v>327.192907484828</v>
+        <v>4841530.625626255</v>
       </c>
       <c r="H140">
-        <v>2799.053673436153</v>
+        <v>3986175.893618669</v>
       </c>
       <c r="I140">
-        <v>-67.37754774117639</v>
+        <v>1116277.832574365</v>
       </c>
       <c r="J140">
-        <v>494.2089611339957</v>
+        <v>4841658.346657449</v>
       </c>
       <c r="K140">
-        <v>1455.870973630156</v>
+        <v>3986581.357539576</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5345,34 +5336,34 @@
         <v>33</v>
       </c>
       <c r="B141" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C141" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D141" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E141">
         <v>185.142</v>
       </c>
       <c r="F141">
-        <v>34.81258353846664</v>
+        <v>1116409.805685454</v>
       </c>
       <c r="G141">
-        <v>344.4644038506847</v>
+        <v>4841547.138422416</v>
       </c>
       <c r="H141">
-        <v>2817.230082692744</v>
+        <v>3986187.631948423</v>
       </c>
       <c r="I141">
-        <v>-15.16696179659351</v>
+        <v>1116342.333028034</v>
       </c>
       <c r="J141">
-        <v>439.9517219108976</v>
+        <v>4841609.695150376</v>
       </c>
       <c r="K141">
-        <v>1336.537827323234</v>
+        <v>3986400.396238997</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5380,34 +5371,34 @@
         <v>33</v>
       </c>
       <c r="B142" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C142" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D142" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E142">
         <v>186.142</v>
       </c>
       <c r="F142">
-        <v>34.16227281720257</v>
+        <v>1116408.904303203</v>
       </c>
       <c r="G142">
-        <v>361.7359002165415</v>
+        <v>4841563.651218576</v>
       </c>
       <c r="H142">
-        <v>2834.721988704573</v>
+        <v>3986198.928225806</v>
       </c>
       <c r="I142">
-        <v>38.32926179401656</v>
+        <v>1116408.421746034</v>
       </c>
       <c r="J142">
-        <v>385.6944826877997</v>
+        <v>4841561.043643305</v>
       </c>
       <c r="K142">
-        <v>1207.215037729473</v>
+        <v>3986204.286265166</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5415,34 +5406,34 @@
         <v>33</v>
       </c>
       <c r="B143" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C143" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D143" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E143">
         <v>187.142</v>
       </c>
       <c r="F143">
-        <v>33.54708060812199</v>
+        <v>1116408.051597996</v>
       </c>
       <c r="G143">
-        <v>379.0073965823981</v>
+        <v>4841580.164014737</v>
       </c>
       <c r="H143">
-        <v>2851.579081125337</v>
+        <v>3986209.81454041</v>
       </c>
       <c r="I143">
-        <v>93.14278067492205</v>
+        <v>1116476.137837915</v>
       </c>
       <c r="J143">
-        <v>331.4372434647016</v>
+        <v>4841512.392136233</v>
       </c>
       <c r="K143">
-        <v>1067.902604848871</v>
+        <v>3985993.027618084</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5450,34 +5441,34 @@
         <v>33</v>
       </c>
       <c r="B144" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C144" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D144" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E144">
         <v>188.142</v>
       </c>
       <c r="F144">
-        <v>32.96395698696708</v>
+        <v>1116407.243342396</v>
       </c>
       <c r="G144">
-        <v>396.2788929482549</v>
+        <v>4841596.676810898</v>
       </c>
       <c r="H144">
-        <v>2867.845827953784</v>
+        <v>3986220.319609679</v>
       </c>
       <c r="I144">
-        <v>149.3060320307576</v>
+        <v>1116545.521376262</v>
       </c>
       <c r="J144">
-        <v>277.1800042416037</v>
+        <v>4841463.740629161</v>
       </c>
       <c r="K144">
-        <v>918.6005286814296</v>
+        <v>3985766.620297749</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5485,34 +5476,34 @@
         <v>33</v>
       </c>
       <c r="B145" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C145" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D145" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E145">
         <v>189.142</v>
       </c>
       <c r="F145">
-        <v>32.41021028932298</v>
+        <v>1116406.475805542</v>
       </c>
       <c r="G145">
-        <v>413.5503893141116</v>
+        <v>4841613.189607059</v>
       </c>
       <c r="H145">
-        <v>2883.562182466643</v>
+        <v>3986230.469235449</v>
       </c>
       <c r="I145">
-        <v>206.8522517819862</v>
+        <v>1116616.613420408</v>
       </c>
       <c r="J145">
-        <v>222.9227650185056</v>
+        <v>4841415.089122088</v>
       </c>
       <c r="K145">
-        <v>759.3088092271469</v>
+        <v>3985525.064304162</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5520,34 +5511,34 @@
         <v>33</v>
       </c>
       <c r="B146" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C146" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D146" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E146">
         <v>190.142</v>
       </c>
       <c r="F146">
-        <v>31.88345477680347</v>
+        <v>1116405.745680613</v>
       </c>
       <c r="G146">
-        <v>430.8218856799683</v>
+        <v>4841629.702403219</v>
       </c>
       <c r="H146">
-        <v>2898.764174422873</v>
+        <v>3986240.286685748</v>
       </c>
       <c r="I146">
-        <v>265.815494253038</v>
+        <v>1116689.456040738</v>
       </c>
       <c r="J146">
-        <v>168.6655257954074</v>
+        <v>4841366.437615016</v>
       </c>
       <c r="K146">
-        <v>590.0274464860245</v>
+        <v>3985268.359637324</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5555,34 +5546,34 @@
         <v>33</v>
       </c>
       <c r="B147" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C147" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D147" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E147">
         <v>191.142</v>
       </c>
       <c r="F147">
-        <v>31.38156735050021</v>
+        <v>1116405.050024823</v>
       </c>
       <c r="G147">
-        <v>448.093382045825</v>
+        <v>4841646.21519938</v>
       </c>
       <c r="H147">
-        <v>2913.484407554783</v>
+        <v>3986249.793016076</v>
       </c>
       <c r="I147">
-        <v>326.2306523247501</v>
+        <v>1116764.092343579</v>
       </c>
       <c r="J147">
-        <v>114.4082865723096</v>
+        <v>4841317.786107944</v>
       </c>
       <c r="K147">
-        <v>410.7564404580621</v>
+        <v>3984996.506297234</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5590,34 +5581,34 @@
         <v>33</v>
       </c>
       <c r="B148" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C148" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D148" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E148">
         <v>192.142</v>
       </c>
       <c r="F148">
-        <v>30.90265152008816</v>
+        <v>1116404.386209488</v>
       </c>
       <c r="G148">
-        <v>465.3648784116817</v>
+        <v>4841662.727995541</v>
       </c>
       <c r="H148">
-        <v>2927.752480625251</v>
+        <v>3986259.007341319</v>
       </c>
       <c r="I148">
-        <v>388.1334780830531</v>
+        <v>1116840.566496714</v>
       </c>
       <c r="J148">
-        <v>60.15104734921144</v>
+        <v>4841269.134600872</v>
       </c>
       <c r="K148">
-        <v>221.4957911432589</v>
+        <v>3984709.504283892</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5625,34 +5616,34 @@
         <v>33</v>
       </c>
       <c r="B149" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C149" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D149" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E149">
         <v>193.142</v>
       </c>
       <c r="F149">
-        <v>30.44500723414102</v>
+        <v>1116403.751878201</v>
       </c>
       <c r="G149">
-        <v>482.6363747775385</v>
+        <v>4841679.240791702</v>
       </c>
       <c r="H149">
-        <v>2941.595345723801</v>
+        <v>3986267.947067146</v>
       </c>
       <c r="I149">
-        <v>451.5606039760983</v>
+        <v>1116918.923755515</v>
       </c>
       <c r="J149">
-        <v>5.893808126113312</v>
+        <v>4841220.4830938</v>
       </c>
       <c r="K149">
-        <v>22.24549854161573</v>
+        <v>3984407.353597299</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5660,34 +5651,34 @@
         <v>33</v>
       </c>
       <c r="B150" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C150" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D150" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E150">
         <v>194.142</v>
       </c>
       <c r="F150">
-        <v>30.00710547748328</v>
+        <v>1116403.144911626</v>
       </c>
       <c r="G150">
-        <v>499.9078711433951</v>
+        <v>4841695.753587862</v>
       </c>
       <c r="H150">
-        <v>2955.037614703234</v>
+        <v>3986276.628087896</v>
       </c>
       <c r="I150">
-        <v>516.5495644923734</v>
+        <v>1116999.210489726</v>
       </c>
       <c r="J150">
-        <v>-48.36343109698456</v>
+        <v>4841171.831586728</v>
       </c>
       <c r="K150">
-        <v>-186.9944373468671</v>
+        <v>3984090.054237454</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5695,34 +5686,34 @@
         <v>33</v>
       </c>
       <c r="B151" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C151" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D151" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E151">
         <v>195.142</v>
       </c>
       <c r="F151">
-        <v>29.58756677045876</v>
+        <v>1116402.563397695</v>
       </c>
       <c r="G151">
-        <v>517.1793675092518</v>
+        <v>4841712.266384023</v>
       </c>
       <c r="H151">
-        <v>2968.10182251131</v>
+        <v>3986285.064956645</v>
       </c>
       <c r="I151">
-        <v>583.1388183726148</v>
+        <v>1117081.474210905</v>
       </c>
       <c r="J151">
-        <v>-102.6206703200827</v>
+        <v>4841123.180079656</v>
       </c>
       <c r="K151">
-        <v>-406.2240165221908</v>
+        <v>3983757.606204357</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5730,34 +5721,34 @@
         <v>33</v>
       </c>
       <c r="B152" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C152" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D152" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E152">
         <v>196.142</v>
       </c>
       <c r="F152">
-        <v>29.18514288119017</v>
+        <v>1116402.005606259</v>
       </c>
       <c r="G152">
-        <v>534.4508638751087</v>
+        <v>4841728.779180183</v>
       </c>
       <c r="H152">
-        <v>2980.808654494833</v>
+        <v>3986293.271031995</v>
       </c>
       <c r="I152">
-        <v>651.3677713686673</v>
+        <v>1117165.763600537</v>
       </c>
       <c r="J152">
-        <v>-156.8779095431808</v>
+        <v>4841074.528572584</v>
       </c>
       <c r="K152">
-        <v>-635.4432389843553</v>
+        <v>3983410.009498008</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5765,34 +5756,34 @@
         <v>33</v>
       </c>
       <c r="B153" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C153" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D153" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E153">
         <v>197.142</v>
       </c>
       <c r="F153">
-        <v>28.79870119851809</v>
+        <v>1116401.469967429</v>
       </c>
       <c r="G153">
-        <v>551.7223602409653</v>
+        <v>4841745.291976345</v>
       </c>
       <c r="H153">
-        <v>2993.177143433882</v>
+        <v>3986301.25860532</v>
       </c>
       <c r="I153">
-        <v>721.2767995627617</v>
+        <v>1117252.128538843</v>
       </c>
       <c r="J153">
-        <v>-211.1351487662789</v>
+        <v>4841025.877065511</v>
       </c>
       <c r="K153">
-        <v>-874.6521047333595</v>
+        <v>3983047.264118408</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5800,34 +5791,34 @@
         <v>33</v>
       </c>
       <c r="B154" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C154" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D154" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E154">
         <v>198.142</v>
       </c>
       <c r="F154">
-        <v>28.4272113200107</v>
+        <v>1116400.955052986</v>
       </c>
       <c r="G154">
-        <v>568.993856606822</v>
+        <v>4841761.804772506</v>
       </c>
       <c r="H154">
-        <v>3005.22484101816</v>
+        <v>3986309.039011506</v>
       </c>
       <c r="I154">
-        <v>792.9072732610086</v>
+        <v>1117340.620134302</v>
       </c>
       <c r="J154">
-        <v>-265.3923879893766</v>
+        <v>4840977.225558439</v>
       </c>
       <c r="K154">
-        <v>-1123.850613769202</v>
+        <v>3982669.370065555</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5835,34 +5826,34 @@
         <v>33</v>
       </c>
       <c r="B155" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C155" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D155" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E155">
         <v>199.142</v>
       </c>
       <c r="F155">
-        <v>28.06973349337034</v>
+        <v>1116400.459560358</v>
       </c>
       <c r="G155">
-        <v>586.2653529726788</v>
+        <v>4841778.317568665</v>
       </c>
       <c r="H155">
-        <v>3016.967967643292</v>
+        <v>3986316.622725689</v>
       </c>
       <c r="I155">
-        <v>866.3015814752482</v>
+        <v>1117431.290753887</v>
       </c>
       <c r="J155">
-        <v>-319.6496272124747</v>
+        <v>4840928.574051368</v>
       </c>
       <c r="K155">
-        <v>-1383.038766091887</v>
+        <v>3982276.327339451</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5870,34 +5861,34 @@
         <v>33</v>
       </c>
       <c r="B156" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C156" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D156" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E156">
         <v>200.142</v>
       </c>
       <c r="F156">
-        <v>27.72540861601954</v>
+        <v>1116399.982298762</v>
       </c>
       <c r="G156">
-        <v>603.5368493385355</v>
+        <v>4841794.830364827</v>
       </c>
       <c r="H156">
-        <v>3028.421543735374</v>
+        <v>3986324.019448063</v>
       </c>
       <c r="I156">
-        <v>941.5031570077375</v>
+        <v>1117524.194054064</v>
       </c>
       <c r="J156">
-        <v>-373.9068664355728</v>
+        <v>4840879.922544295</v>
       </c>
       <c r="K156">
-        <v>-1652.216561701412</v>
+        <v>3981868.135940095</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5905,34 +5896,34 @@
         <v>33</v>
       </c>
       <c r="B157" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C157" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D157" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E157">
         <v>201.142</v>
       </c>
       <c r="F157">
-        <v>27.39344955060048</v>
+        <v>1116399.522177161</v>
       </c>
       <c r="G157">
-        <v>620.8083457043921</v>
+        <v>4841811.343160988</v>
       </c>
       <c r="H157">
-        <v>3039.59950527146</v>
+        <v>3986331.238178486</v>
       </c>
       <c r="I157">
-        <v>1018.556502153533</v>
+        <v>1117619.385012539</v>
       </c>
       <c r="J157">
-        <v>-428.164105658671</v>
+        <v>4840831.271037223</v>
       </c>
       <c r="K157">
-        <v>-1931.384000597777</v>
+        <v>3981444.795867488</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5940,34 +5931,34 @@
         <v>33</v>
       </c>
       <c r="B158" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C158" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D158" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E158">
         <v>202.142</v>
       </c>
       <c r="F158">
-        <v>27.07313355656342</v>
+        <v>1116399.078193782</v>
       </c>
       <c r="G158">
-        <v>638.0798420702489</v>
+        <v>4841827.855957148</v>
       </c>
       <c r="H158">
-        <v>3050.514805724766</v>
+        <v>3986338.287282315</v>
       </c>
       <c r="I158">
-        <v>1097.507215035768</v>
+        <v>1117716.919960792</v>
       </c>
       <c r="J158">
-        <v>-482.4213448817691</v>
+        <v>4840782.619530152</v>
       </c>
       <c r="K158">
-        <v>-2220.541082780982</v>
+        <v>3981006.307121628</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5975,34 +5966,34 @@
         <v>33</v>
       </c>
       <c r="B159" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C159" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D159" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E159">
         <v>203.142</v>
       </c>
       <c r="F159">
-        <v>26.76379567222552</v>
+        <v>1116398.649426934</v>
       </c>
       <c r="G159">
-        <v>655.3513384361056</v>
+        <v>4841844.368753309</v>
       </c>
       <c r="H159">
-        <v>3061.179506305034</v>
+        <v>3986345.174548681</v>
       </c>
       <c r="I159">
-        <v>1178.402016589401</v>
+        <v>1117816.856617416</v>
       </c>
       <c r="J159">
-        <v>-536.6785841048667</v>
+        <v>4840733.968023079</v>
       </c>
       <c r="K159">
-        <v>-2519.687808251026</v>
+        <v>3980552.669702517</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -6010,1889 +6001,34 @@
         <v>33</v>
       </c>
       <c r="B160" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C160" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D160" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E160">
         <v>204.142</v>
       </c>
       <c r="F160">
-        <v>26.46482290940316</v>
+        <v>1116398.235026966</v>
       </c>
       <c r="G160">
-        <v>672.6228348019622</v>
+        <v>4841860.88154947</v>
       </c>
       <c r="H160">
-        <v>3071.604856070619</v>
+        <v>3986351.907242231</v>
       </c>
       <c r="I160">
-        <v>1261.288778209441</v>
+        <v>1117919.254122268</v>
       </c>
       <c r="J160">
-        <v>-590.9358233279648</v>
+        <v>4840685.316516006</v>
       </c>
       <c r="K160">
-        <v>-2828.824177007912</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11">
-      <c r="A161">
-        <v>33</v>
-      </c>
-      <c r="B161" t="s">
-        <v>13</v>
-      </c>
-      <c r="C161" t="s">
-        <v>17</v>
-      </c>
-      <c r="D161" t="s">
-        <v>20</v>
-      </c>
-      <c r="E161">
-        <v>152.142</v>
-      </c>
-      <c r="F161">
-        <v>251.7193361924754</v>
-      </c>
-      <c r="G161">
-        <v>-61.91603529744021</v>
-      </c>
-      <c r="H161">
-        <v>895.719833680576</v>
-      </c>
-      <c r="I161">
-        <v>-1780.145404263317</v>
-      </c>
-      <c r="J161">
-        <v>1839.305922760509</v>
-      </c>
-      <c r="K161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11">
-      <c r="A162">
-        <v>33</v>
-      </c>
-      <c r="B162" t="s">
-        <v>13</v>
-      </c>
-      <c r="C162" t="s">
-        <v>17</v>
-      </c>
-      <c r="D162" t="s">
-        <v>20</v>
-      </c>
-      <c r="E162">
-        <v>153.142</v>
-      </c>
-      <c r="F162">
-        <v>251.7193361924754</v>
-      </c>
-      <c r="G162">
-        <v>-61.91603529744021</v>
-      </c>
-      <c r="H162">
-        <v>895.719833680576</v>
-      </c>
-      <c r="I162">
-        <v>-1745.000593923562</v>
-      </c>
-      <c r="J162">
-        <v>1794.563345564068</v>
-      </c>
-      <c r="K162">
-        <v>177.1753247183263</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11">
-      <c r="A163">
-        <v>33</v>
-      </c>
-      <c r="B163" t="s">
-        <v>13</v>
-      </c>
-      <c r="C163" t="s">
-        <v>17</v>
-      </c>
-      <c r="D163" t="s">
-        <v>20</v>
-      </c>
-      <c r="E163">
-        <v>154.142</v>
-      </c>
-      <c r="F163">
-        <v>251.7193361924754</v>
-      </c>
-      <c r="G163">
-        <v>-61.91603529744021</v>
-      </c>
-      <c r="H163">
-        <v>895.719833680576</v>
-      </c>
-      <c r="I163">
-        <v>-1708.990374961824</v>
-      </c>
-      <c r="J163">
-        <v>1749.820768367627</v>
-      </c>
-      <c r="K163">
-        <v>345.5158756036641</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11">
-      <c r="A164">
-        <v>33</v>
-      </c>
-      <c r="B164" t="s">
-        <v>13</v>
-      </c>
-      <c r="C164" t="s">
-        <v>17</v>
-      </c>
-      <c r="D164" t="s">
-        <v>20</v>
-      </c>
-      <c r="E164">
-        <v>155.142</v>
-      </c>
-      <c r="F164">
-        <v>251.7193361924754</v>
-      </c>
-      <c r="G164">
-        <v>-61.91603529744021</v>
-      </c>
-      <c r="H164">
-        <v>895.719833680576</v>
-      </c>
-      <c r="I164">
-        <v>-1672.093437486946</v>
-      </c>
-      <c r="J164">
-        <v>1705.078191171186</v>
-      </c>
-      <c r="K164">
-        <v>505.0216526560147</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11">
-      <c r="A165">
-        <v>33</v>
-      </c>
-      <c r="B165" t="s">
-        <v>13</v>
-      </c>
-      <c r="C165" t="s">
-        <v>17</v>
-      </c>
-      <c r="D165" t="s">
-        <v>20</v>
-      </c>
-      <c r="E165">
-        <v>156.142</v>
-      </c>
-      <c r="F165">
-        <v>251.7193361924754</v>
-      </c>
-      <c r="G165">
-        <v>-61.91603529744021</v>
-      </c>
-      <c r="H165">
-        <v>895.719833680576</v>
-      </c>
-      <c r="I165">
-        <v>-1634.287946871311</v>
-      </c>
-      <c r="J165">
-        <v>1660.335613974745</v>
-      </c>
-      <c r="K165">
-        <v>655.692655875377</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11">
-      <c r="A166">
-        <v>33</v>
-      </c>
-      <c r="B166" t="s">
-        <v>13</v>
-      </c>
-      <c r="C166" t="s">
-        <v>17</v>
-      </c>
-      <c r="D166" t="s">
-        <v>20</v>
-      </c>
-      <c r="E166">
-        <v>157.142</v>
-      </c>
-      <c r="F166">
-        <v>251.7193361924754</v>
-      </c>
-      <c r="G166">
-        <v>-61.91603529744021</v>
-      </c>
-      <c r="H166">
-        <v>895.719833680576</v>
-      </c>
-      <c r="I166">
-        <v>-1595.551530829678</v>
-      </c>
-      <c r="J166">
-        <v>1615.593036778304</v>
-      </c>
-      <c r="K166">
-        <v>797.5288852617524</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11">
-      <c r="A167">
-        <v>33</v>
-      </c>
-      <c r="B167" t="s">
-        <v>13</v>
-      </c>
-      <c r="C167" t="s">
-        <v>17</v>
-      </c>
-      <c r="D167" t="s">
-        <v>20</v>
-      </c>
-      <c r="E167">
-        <v>158.142</v>
-      </c>
-      <c r="F167">
-        <v>251.7193361924754</v>
-      </c>
-      <c r="G167">
-        <v>-61.91603529744021</v>
-      </c>
-      <c r="H167">
-        <v>895.719833680576</v>
-      </c>
-      <c r="I167">
-        <v>-1555.861266179869</v>
-      </c>
-      <c r="J167">
-        <v>1570.850459581863</v>
-      </c>
-      <c r="K167">
-        <v>930.5303408151397</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11">
-      <c r="A168">
-        <v>33</v>
-      </c>
-      <c r="B168" t="s">
-        <v>13</v>
-      </c>
-      <c r="C168" t="s">
-        <v>17</v>
-      </c>
-      <c r="D168" t="s">
-        <v>20</v>
-      </c>
-      <c r="E168">
-        <v>159.142</v>
-      </c>
-      <c r="F168">
-        <v>251.7193361924754</v>
-      </c>
-      <c r="G168">
-        <v>-61.91603529744021</v>
-      </c>
-      <c r="H168">
-        <v>895.719833680576</v>
-      </c>
-      <c r="I168">
-        <v>-1515.193665277433</v>
-      </c>
-      <c r="J168">
-        <v>1526.107882385422</v>
-      </c>
-      <c r="K168">
-        <v>1054.697022535539</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11">
-      <c r="A169">
-        <v>33</v>
-      </c>
-      <c r="B169" t="s">
-        <v>13</v>
-      </c>
-      <c r="C169" t="s">
-        <v>17</v>
-      </c>
-      <c r="D169" t="s">
-        <v>20</v>
-      </c>
-      <c r="E169">
-        <v>160.142</v>
-      </c>
-      <c r="F169">
-        <v>251.7193361924754</v>
-      </c>
-      <c r="G169">
-        <v>-51.69195504809854</v>
-      </c>
-      <c r="H169">
-        <v>895.719833680576</v>
-      </c>
-      <c r="I169">
-        <v>-1473.524662116281</v>
-      </c>
-      <c r="J169">
-        <v>1481.365305188981</v>
-      </c>
-      <c r="K169">
-        <v>1170.028930422951</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11">
-      <c r="A170">
-        <v>33</v>
-      </c>
-      <c r="B170" t="s">
-        <v>13</v>
-      </c>
-      <c r="C170" t="s">
-        <v>17</v>
-      </c>
-      <c r="D170" t="s">
-        <v>20</v>
-      </c>
-      <c r="E170">
-        <v>161.142</v>
-      </c>
-      <c r="F170">
-        <v>195.363569571696</v>
-      </c>
-      <c r="G170">
-        <v>-41.46787479875687</v>
-      </c>
-      <c r="H170">
-        <v>1103.520807745713</v>
-      </c>
-      <c r="I170">
-        <v>-1430.829598087066</v>
-      </c>
-      <c r="J170">
-        <v>1436.622727992541</v>
-      </c>
-      <c r="K170">
-        <v>1276.526064477374</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11">
-      <c r="A171">
-        <v>33</v>
-      </c>
-      <c r="B171" t="s">
-        <v>13</v>
-      </c>
-      <c r="C171" t="s">
-        <v>17</v>
-      </c>
-      <c r="D171" t="s">
-        <v>20</v>
-      </c>
-      <c r="E171">
-        <v>162.142</v>
-      </c>
-      <c r="F171">
-        <v>162.2573837924232</v>
-      </c>
-      <c r="G171">
-        <v>-31.24379454941521</v>
-      </c>
-      <c r="H171">
-        <v>1227.297695244181</v>
-      </c>
-      <c r="I171">
-        <v>-1387.08320738487</v>
-      </c>
-      <c r="J171">
-        <v>1391.8801507961</v>
-      </c>
-      <c r="K171">
-        <v>1374.188424698811</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11">
-      <c r="A172">
-        <v>33</v>
-      </c>
-      <c r="B172" t="s">
-        <v>13</v>
-      </c>
-      <c r="C172" t="s">
-        <v>17</v>
-      </c>
-      <c r="D172" t="s">
-        <v>20</v>
-      </c>
-      <c r="E172">
-        <v>163.142</v>
-      </c>
-      <c r="F172">
-        <v>141.3583305358722</v>
-      </c>
-      <c r="G172">
-        <v>-21.01971430007354</v>
-      </c>
-      <c r="H172">
-        <v>1315.752670979327</v>
-      </c>
-      <c r="I172">
-        <v>-1342.259602057573</v>
-      </c>
-      <c r="J172">
-        <v>1347.137573599658</v>
-      </c>
-      <c r="K172">
-        <v>1463.016011087259</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11">
-      <c r="A173">
-        <v>33</v>
-      </c>
-      <c r="B173" t="s">
-        <v>13</v>
-      </c>
-      <c r="C173" t="s">
-        <v>17</v>
-      </c>
-      <c r="D173" t="s">
-        <v>20</v>
-      </c>
-      <c r="E173">
-        <v>164.142</v>
-      </c>
-      <c r="F173">
-        <v>126.7834156289911</v>
-      </c>
-      <c r="G173">
-        <v>-10.79563405073187</v>
-      </c>
-      <c r="H173">
-        <v>1384.632513194497</v>
-      </c>
-      <c r="I173">
-        <v>-1296.332256686053</v>
-      </c>
-      <c r="J173">
-        <v>1302.394996403217</v>
-      </c>
-      <c r="K173">
-        <v>1543.00882364272</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11">
-      <c r="A174">
-        <v>33</v>
-      </c>
-      <c r="B174" t="s">
-        <v>13</v>
-      </c>
-      <c r="C174" t="s">
-        <v>17</v>
-      </c>
-      <c r="D174" t="s">
-        <v>20</v>
-      </c>
-      <c r="E174">
-        <v>165.142</v>
-      </c>
-      <c r="F174">
-        <v>115.9100926395561</v>
-      </c>
-      <c r="G174">
-        <v>-0.5715538013902102</v>
-      </c>
-      <c r="H174">
-        <v>1441.050446776289</v>
-      </c>
-      <c r="I174">
-        <v>-1249.273992687143</v>
-      </c>
-      <c r="J174">
-        <v>1257.652419206777</v>
-      </c>
-      <c r="K174">
-        <v>1614.166862365193</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11">
-      <c r="A175">
-        <v>33</v>
-      </c>
-      <c r="B175" t="s">
-        <v>13</v>
-      </c>
-      <c r="C175" t="s">
-        <v>17</v>
-      </c>
-      <c r="D175" t="s">
-        <v>20</v>
-      </c>
-      <c r="E175">
-        <v>166.142</v>
-      </c>
-      <c r="F175">
-        <v>107.4086724763573</v>
-      </c>
-      <c r="G175">
-        <v>9.652526447951459</v>
-      </c>
-      <c r="H175">
-        <v>1488.832318210521</v>
-      </c>
-      <c r="I175">
-        <v>-1201.056962230068</v>
-      </c>
-      <c r="J175">
-        <v>1212.909842010336</v>
-      </c>
-      <c r="K175">
-        <v>1676.490127254678</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11">
-      <c r="A176">
-        <v>33</v>
-      </c>
-      <c r="B176" t="s">
-        <v>13</v>
-      </c>
-      <c r="C176" t="s">
-        <v>17</v>
-      </c>
-      <c r="D176" t="s">
-        <v>20</v>
-      </c>
-      <c r="E176">
-        <v>167.142</v>
-      </c>
-      <c r="F176">
-        <v>100.5304045556301</v>
-      </c>
-      <c r="G176">
-        <v>19.87660669729313</v>
-      </c>
-      <c r="H176">
-        <v>1530.274389304019</v>
-      </c>
-      <c r="I176">
-        <v>-1151.652631756842</v>
-      </c>
-      <c r="J176">
-        <v>1168.167264813895</v>
-      </c>
-      <c r="K176">
-        <v>1729.978618311175</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11">
-      <c r="A177">
-        <v>33</v>
-      </c>
-      <c r="B177" t="s">
-        <v>13</v>
-      </c>
-      <c r="C177" t="s">
-        <v>17</v>
-      </c>
-      <c r="D177" t="s">
-        <v>20</v>
-      </c>
-      <c r="E177">
-        <v>168.142</v>
-      </c>
-      <c r="F177">
-        <v>94.81899131726621</v>
-      </c>
-      <c r="G177">
-        <v>30.10068694663479</v>
-      </c>
-      <c r="H177">
-        <v>1566.86363723337</v>
-      </c>
-      <c r="I177">
-        <v>-1101.031765096864</v>
-      </c>
-      <c r="J177">
-        <v>1123.424687617454</v>
-      </c>
-      <c r="K177">
-        <v>1774.632335534685</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11">
-      <c r="A178">
-        <v>33</v>
-      </c>
-      <c r="B178" t="s">
-        <v>13</v>
-      </c>
-      <c r="C178" t="s">
-        <v>17</v>
-      </c>
-      <c r="D178" t="s">
-        <v>20</v>
-      </c>
-      <c r="E178">
-        <v>169.142</v>
-      </c>
-      <c r="F178">
-        <v>89.97899832820467</v>
-      </c>
-      <c r="G178">
-        <v>40.32476719597647</v>
-      </c>
-      <c r="H178">
-        <v>1599.618376943475</v>
-      </c>
-      <c r="I178">
-        <v>-1049.164406165727</v>
-      </c>
-      <c r="J178">
-        <v>1078.682110421013</v>
-      </c>
-      <c r="K178">
-        <v>1810.451278925207</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11">
-      <c r="A179">
-        <v>33</v>
-      </c>
-      <c r="B179" t="s">
-        <v>13</v>
-      </c>
-      <c r="C179" t="s">
-        <v>17</v>
-      </c>
-      <c r="D179" t="s">
-        <v>20</v>
-      </c>
-      <c r="E179">
-        <v>170.142</v>
-      </c>
-      <c r="F179">
-        <v>85.80981655961703</v>
-      </c>
-      <c r="G179">
-        <v>50.54884744531813</v>
-      </c>
-      <c r="H179">
-        <v>1629.266618571374</v>
-      </c>
-      <c r="I179">
-        <v>-996.0198612380054</v>
-      </c>
-      <c r="J179">
-        <v>1033.939533224572</v>
-      </c>
-      <c r="K179">
-        <v>1837.435448482741</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11">
-      <c r="A180">
-        <v>33</v>
-      </c>
-      <c r="B180" t="s">
-        <v>13</v>
-      </c>
-      <c r="C180" t="s">
-        <v>17</v>
-      </c>
-      <c r="D180" t="s">
-        <v>20</v>
-      </c>
-      <c r="E180">
-        <v>171.142</v>
-      </c>
-      <c r="F180">
-        <v>82.16990544678706</v>
-      </c>
-      <c r="G180">
-        <v>60.77292769465978</v>
-      </c>
-      <c r="H180">
-        <v>1656.346901998513</v>
-      </c>
-      <c r="I180">
-        <v>-941.5666807835242</v>
-      </c>
-      <c r="J180">
-        <v>989.1969560281308</v>
-      </c>
-      <c r="K180">
-        <v>1855.584844207287</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11">
-      <c r="A181">
-        <v>33</v>
-      </c>
-      <c r="B181" t="s">
-        <v>13</v>
-      </c>
-      <c r="C181" t="s">
-        <v>17</v>
-      </c>
-      <c r="D181" t="s">
-        <v>20</v>
-      </c>
-      <c r="E181">
-        <v>172.142</v>
-      </c>
-      <c r="F181">
-        <v>78.95620795893213</v>
-      </c>
-      <c r="G181">
-        <v>70.99700794400147</v>
-      </c>
-      <c r="H181">
-        <v>1681.268828319876</v>
-      </c>
-      <c r="I181">
-        <v>-885.7726408563586</v>
-      </c>
-      <c r="J181">
-        <v>944.4543788316898</v>
-      </c>
-      <c r="K181">
-        <v>1864.899466098846</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11">
-      <c r="A182">
-        <v>33</v>
-      </c>
-      <c r="B182" t="s">
-        <v>13</v>
-      </c>
-      <c r="C182" t="s">
-        <v>17</v>
-      </c>
-      <c r="D182" t="s">
-        <v>20</v>
-      </c>
-      <c r="E182">
-        <v>173.142</v>
-      </c>
-      <c r="F182">
-        <v>76.0916885893761</v>
-      </c>
-      <c r="G182">
-        <v>81.22108819334312</v>
-      </c>
-      <c r="H182">
-        <v>1704.351196079086</v>
-      </c>
-      <c r="I182">
-        <v>-828.6047240255619</v>
-      </c>
-      <c r="J182">
-        <v>899.7118016352489</v>
-      </c>
-      <c r="K182">
-        <v>1865.379314157417</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11">
-      <c r="A183">
-        <v>33</v>
-      </c>
-      <c r="B183" t="s">
-        <v>13</v>
-      </c>
-      <c r="C183" t="s">
-        <v>17</v>
-      </c>
-      <c r="D183" t="s">
-        <v>20</v>
-      </c>
-      <c r="E183">
-        <v>174.142</v>
-      </c>
-      <c r="F183">
-        <v>73.51746554515249</v>
-      </c>
-      <c r="G183">
-        <v>91.4451684426848</v>
-      </c>
-      <c r="H183">
-        <v>1725.847003693015</v>
-      </c>
-      <c r="I183">
-        <v>-770.0290998363264</v>
-      </c>
-      <c r="J183">
-        <v>854.9692244388078</v>
-      </c>
-      <c r="K183">
-        <v>1857.024388383</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11">
-      <c r="A184">
-        <v>33</v>
-      </c>
-      <c r="B184" t="s">
-        <v>13</v>
-      </c>
-      <c r="C184" t="s">
-        <v>17</v>
-      </c>
-      <c r="D184" t="s">
-        <v>20</v>
-      </c>
-      <c r="E184">
-        <v>175.142</v>
-      </c>
-      <c r="F184">
-        <v>71.18766385934727</v>
-      </c>
-      <c r="G184">
-        <v>101.6692486920265</v>
-      </c>
-      <c r="H184">
-        <v>1745.960397844544</v>
-      </c>
-      <c r="I184">
-        <v>-710.0111047900165</v>
-      </c>
-      <c r="J184">
-        <v>810.226647242367</v>
-      </c>
-      <c r="K184">
-        <v>1839.834688775595</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11">
-      <c r="A185">
-        <v>33</v>
-      </c>
-      <c r="B185" t="s">
-        <v>13</v>
-      </c>
-      <c r="C185" t="s">
-        <v>17</v>
-      </c>
-      <c r="D185" t="s">
-        <v>20</v>
-      </c>
-      <c r="E185">
-        <v>176.142</v>
-      </c>
-      <c r="F185">
-        <v>69.06594440037377</v>
-      </c>
-      <c r="G185">
-        <v>111.8933289413681</v>
-      </c>
-      <c r="H185">
-        <v>1764.858493621137</v>
-      </c>
-      <c r="I185">
-        <v>-648.5152218312344</v>
-      </c>
-      <c r="J185">
-        <v>765.4840700459259</v>
-      </c>
-      <c r="K185">
-        <v>1813.810215335203</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11">
-      <c r="A186">
-        <v>33</v>
-      </c>
-      <c r="B186" t="s">
-        <v>13</v>
-      </c>
-      <c r="C186" t="s">
-        <v>17</v>
-      </c>
-      <c r="D186" t="s">
-        <v>20</v>
-      </c>
-      <c r="E186">
-        <v>177.142</v>
-      </c>
-      <c r="F186">
-        <v>67.12310054472965</v>
-      </c>
-      <c r="G186">
-        <v>122.1174091907098</v>
-      </c>
-      <c r="H186">
-        <v>1782.679822668729</v>
-      </c>
-      <c r="I186">
-        <v>-585.5050593297674</v>
-      </c>
-      <c r="J186">
-        <v>720.7414928494849</v>
-      </c>
-      <c r="K186">
-        <v>1778.950968061823</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11">
-      <c r="A187">
-        <v>33</v>
-      </c>
-      <c r="B187" t="s">
-        <v>13</v>
-      </c>
-      <c r="C187" t="s">
-        <v>17</v>
-      </c>
-      <c r="D187" t="s">
-        <v>20</v>
-      </c>
-      <c r="E187">
-        <v>178.142</v>
-      </c>
-      <c r="F187">
-        <v>65.33535528567177</v>
-      </c>
-      <c r="G187">
-        <v>132.3414894400515</v>
-      </c>
-      <c r="H187">
-        <v>1799.540501648036</v>
-      </c>
-      <c r="I187">
-        <v>-520.9433295449886</v>
-      </c>
-      <c r="J187">
-        <v>675.998915653044</v>
-      </c>
-      <c r="K187">
-        <v>1735.256946955455</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11">
-      <c r="A188">
-        <v>33</v>
-      </c>
-      <c r="B188" t="s">
-        <v>13</v>
-      </c>
-      <c r="C188" t="s">
-        <v>17</v>
-      </c>
-      <c r="D188" t="s">
-        <v>20</v>
-      </c>
-      <c r="E188">
-        <v>179.142</v>
-      </c>
-      <c r="F188">
-        <v>63.68312985032745</v>
-      </c>
-      <c r="G188">
-        <v>142.5655696893931</v>
-      </c>
-      <c r="H188">
-        <v>1815.538821544916</v>
-      </c>
-      <c r="I188">
-        <v>-454.7918265599612</v>
-      </c>
-      <c r="J188">
-        <v>631.256338456603</v>
-      </c>
-      <c r="K188">
-        <v>1682.728152016099</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11">
-      <c r="A189">
-        <v>33</v>
-      </c>
-      <c r="B189" t="s">
-        <v>13</v>
-      </c>
-      <c r="C189" t="s">
-        <v>17</v>
-      </c>
-      <c r="D189" t="s">
-        <v>20</v>
-      </c>
-      <c r="E189">
-        <v>180.142</v>
-      </c>
-      <c r="F189">
-        <v>62.15013703535404</v>
-      </c>
-      <c r="G189">
-        <v>152.7896499387348</v>
-      </c>
-      <c r="H189">
-        <v>1830.75871941684</v>
-      </c>
-      <c r="I189">
-        <v>-387.0114036721945</v>
-      </c>
-      <c r="J189">
-        <v>586.5137612601619</v>
-      </c>
-      <c r="K189">
-        <v>1621.364583243755</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11">
-      <c r="A190">
-        <v>33</v>
-      </c>
-      <c r="B190" t="s">
-        <v>13</v>
-      </c>
-      <c r="C190" t="s">
-        <v>17</v>
-      </c>
-      <c r="D190" t="s">
-        <v>20</v>
-      </c>
-      <c r="E190">
-        <v>181.142</v>
-      </c>
-      <c r="F190">
-        <v>60.72270275636473</v>
-      </c>
-      <c r="G190">
-        <v>163.0137301880765</v>
-      </c>
-      <c r="H190">
-        <v>1845.272444036435</v>
-      </c>
-      <c r="I190">
-        <v>-317.5619502276624</v>
-      </c>
-      <c r="J190">
-        <v>541.7711840637211</v>
-      </c>
-      <c r="K190">
-        <v>1551.166240638425</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11">
-      <c r="A191">
-        <v>33</v>
-      </c>
-      <c r="B191" t="s">
-        <v>13</v>
-      </c>
-      <c r="C191" t="s">
-        <v>17</v>
-      </c>
-      <c r="D191" t="s">
-        <v>20</v>
-      </c>
-      <c r="E191">
-        <v>182.142</v>
-      </c>
-      <c r="F191">
-        <v>59.38925093328173</v>
-      </c>
-      <c r="G191">
-        <v>173.2378104374181</v>
-      </c>
-      <c r="H191">
-        <v>1859.142630102254</v>
-      </c>
-      <c r="I191">
-        <v>-246.4023678843844</v>
-      </c>
-      <c r="J191">
-        <v>497.02860686728</v>
-      </c>
-      <c r="K191">
-        <v>1472.133124200105</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11">
-      <c r="A192">
-        <v>33</v>
-      </c>
-      <c r="B192" t="s">
-        <v>13</v>
-      </c>
-      <c r="C192" t="s">
-        <v>17</v>
-      </c>
-      <c r="D192" t="s">
-        <v>20</v>
-      </c>
-      <c r="E192">
-        <v>183.142</v>
-      </c>
-      <c r="F192">
-        <v>58.13990721206345</v>
-      </c>
-      <c r="G192">
-        <v>183.4618906867598</v>
-      </c>
-      <c r="H192">
-        <v>1872.423931815841</v>
-      </c>
-      <c r="I192">
-        <v>-173.490546291518</v>
-      </c>
-      <c r="J192">
-        <v>452.2860296708391</v>
-      </c>
-      <c r="K192">
-        <v>1384.265233928799</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11">
-      <c r="A193">
-        <v>33</v>
-      </c>
-      <c r="B193" t="s">
-        <v>13</v>
-      </c>
-      <c r="C193" t="s">
-        <v>17</v>
-      </c>
-      <c r="D193" t="s">
-        <v>20</v>
-      </c>
-      <c r="E193">
-        <v>184.142</v>
-      </c>
-      <c r="F193">
-        <v>56.96619044243096</v>
-      </c>
-      <c r="G193">
-        <v>193.6859709361015</v>
-      </c>
-      <c r="H193">
-        <v>1885.164323588943</v>
-      </c>
-      <c r="I193">
-        <v>-98.78333816957316</v>
-      </c>
-      <c r="J193">
-        <v>407.5434524743981</v>
-      </c>
-      <c r="K193">
-        <v>1287.562569824504</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11">
-      <c r="A194">
-        <v>33</v>
-      </c>
-      <c r="B194" t="s">
-        <v>13</v>
-      </c>
-      <c r="C194" t="s">
-        <v>17</v>
-      </c>
-      <c r="D194" t="s">
-        <v>20</v>
-      </c>
-      <c r="E194">
-        <v>185.142</v>
-      </c>
-      <c r="F194">
-        <v>55.86076984356976</v>
-      </c>
-      <c r="G194">
-        <v>203.9100511854431</v>
-      </c>
-      <c r="H194">
-        <v>1897.406146097266</v>
-      </c>
-      <c r="I194">
-        <v>-22.23653377699695</v>
-      </c>
-      <c r="J194">
-        <v>362.800875277957</v>
-      </c>
-      <c r="K194">
-        <v>1182.025131887222</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11">
-      <c r="A195">
-        <v>33</v>
-      </c>
-      <c r="B195" t="s">
-        <v>13</v>
-      </c>
-      <c r="C195" t="s">
-        <v>17</v>
-      </c>
-      <c r="D195" t="s">
-        <v>20</v>
-      </c>
-      <c r="E195">
-        <v>186.142</v>
-      </c>
-      <c r="F195">
-        <v>54.81727195186062</v>
-      </c>
-      <c r="G195">
-        <v>214.1341314347848</v>
-      </c>
-      <c r="H195">
-        <v>1909.18695526074</v>
-      </c>
-      <c r="I195">
-        <v>56.1951652519779</v>
-      </c>
-      <c r="J195">
-        <v>318.0582980815162</v>
-      </c>
-      <c r="K195">
-        <v>1067.652920116952</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11">
-      <c r="A196">
-        <v>33</v>
-      </c>
-      <c r="B196" t="s">
-        <v>13</v>
-      </c>
-      <c r="C196" t="s">
-        <v>17</v>
-      </c>
-      <c r="D196" t="s">
-        <v>20</v>
-      </c>
-      <c r="E196">
-        <v>187.142</v>
-      </c>
-      <c r="F196">
-        <v>53.83012572747785</v>
-      </c>
-      <c r="G196">
-        <v>224.3582116841265</v>
-      </c>
-      <c r="H196">
-        <v>1920.540217090855</v>
-      </c>
-      <c r="I196">
-        <v>136.5581727137011</v>
-      </c>
-      <c r="J196">
-        <v>273.3157208850751</v>
-      </c>
-      <c r="K196">
-        <v>944.4459345136946</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11">
-      <c r="A197">
-        <v>33</v>
-      </c>
-      <c r="B197" t="s">
-        <v>13</v>
-      </c>
-      <c r="C197" t="s">
-        <v>17</v>
-      </c>
-      <c r="D197" t="s">
-        <v>20</v>
-      </c>
-      <c r="E197">
-        <v>188.142</v>
-      </c>
-      <c r="F197">
-        <v>52.89443721830153</v>
-      </c>
-      <c r="G197">
-        <v>234.5822919334681</v>
-      </c>
-      <c r="H197">
-        <v>1931.495880811371</v>
-      </c>
-      <c r="I197">
-        <v>218.9000453015588</v>
-      </c>
-      <c r="J197">
-        <v>228.5731436886343</v>
-      </c>
-      <c r="K197">
-        <v>812.4041750774495</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11">
-      <c r="A198">
-        <v>33</v>
-      </c>
-      <c r="B198" t="s">
-        <v>13</v>
-      </c>
-      <c r="C198" t="s">
-        <v>17</v>
-      </c>
-      <c r="D198" t="s">
-        <v>20</v>
-      </c>
-      <c r="E198">
-        <v>189.142</v>
-      </c>
-      <c r="F198">
-        <v>52.00588734108387</v>
-      </c>
-      <c r="G198">
-        <v>244.8063721828098</v>
-      </c>
-      <c r="H198">
-        <v>1942.080854978067</v>
-      </c>
-      <c r="I198">
-        <v>303.2695107487579</v>
-      </c>
-      <c r="J198">
-        <v>183.8305664921932</v>
-      </c>
-      <c r="K198">
-        <v>671.5276418082158</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11">
-      <c r="A199">
-        <v>33</v>
-      </c>
-      <c r="B199" t="s">
-        <v>13</v>
-      </c>
-      <c r="C199" t="s">
-        <v>17</v>
-      </c>
-      <c r="D199" t="s">
-        <v>20</v>
-      </c>
-      <c r="E199">
-        <v>190.142</v>
-      </c>
-      <c r="F199">
-        <v>51.16064790586154</v>
-      </c>
-      <c r="G199">
-        <v>255.0304524321515</v>
-      </c>
-      <c r="H199">
-        <v>1952.319405655157</v>
-      </c>
-      <c r="I199">
-        <v>389.71649666411</v>
-      </c>
-      <c r="J199">
-        <v>139.0879892957522</v>
-      </c>
-      <c r="K199">
-        <v>521.8163347059948</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11">
-      <c r="A200">
-        <v>33</v>
-      </c>
-      <c r="B200" t="s">
-        <v>13</v>
-      </c>
-      <c r="C200" t="s">
-        <v>17</v>
-      </c>
-      <c r="D200" t="s">
-        <v>20</v>
-      </c>
-      <c r="E200">
-        <v>191.142</v>
-      </c>
-      <c r="F200">
-        <v>50.35531215773674</v>
-      </c>
-      <c r="G200">
-        <v>265.2545326814931</v>
-      </c>
-      <c r="H200">
-        <v>1962.233491475857</v>
-      </c>
-      <c r="I200">
-        <v>478.2921600778577</v>
-      </c>
-      <c r="J200">
-        <v>94.34541209931133</v>
-      </c>
-      <c r="K200">
-        <v>363.2702537707863</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11">
-      <c r="A201">
-        <v>33</v>
-      </c>
-      <c r="B201" t="s">
-        <v>13</v>
-      </c>
-      <c r="C201" t="s">
-        <v>17</v>
-      </c>
-      <c r="D201" t="s">
-        <v>20</v>
-      </c>
-      <c r="E201">
-        <v>192.142</v>
-      </c>
-      <c r="F201">
-        <v>49.5868369611881</v>
-      </c>
-      <c r="G201">
-        <v>275.4786129308348</v>
-      </c>
-      <c r="H201">
-        <v>1971.84304722467</v>
-      </c>
-      <c r="I201">
-        <v>569.0489177150546</v>
-      </c>
-      <c r="J201">
-        <v>49.60283490287028</v>
-      </c>
-      <c r="K201">
-        <v>195.8893990025896</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11">
-      <c r="A202">
-        <v>33</v>
-      </c>
-      <c r="B202" t="s">
-        <v>13</v>
-      </c>
-      <c r="C202" t="s">
-        <v>17</v>
-      </c>
-      <c r="D202" t="s">
-        <v>20</v>
-      </c>
-      <c r="E202">
-        <v>193.142</v>
-      </c>
-      <c r="F202">
-        <v>48.85249438936286</v>
-      </c>
-      <c r="G202">
-        <v>285.7026931801765</v>
-      </c>
-      <c r="H202">
-        <v>1981.166225150017</v>
-      </c>
-      <c r="I202">
-        <v>662.0404770143807</v>
-      </c>
-      <c r="J202">
-        <v>4.86025770642922</v>
-      </c>
-      <c r="K202">
-        <v>19.67377040140526</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11">
-      <c r="A203">
-        <v>33</v>
-      </c>
-      <c r="B203" t="s">
-        <v>13</v>
-      </c>
-      <c r="C203" t="s">
-        <v>17</v>
-      </c>
-      <c r="D203" t="s">
-        <v>20</v>
-      </c>
-      <c r="E203">
-        <v>194.142</v>
-      </c>
-      <c r="F203">
-        <v>48.14983096262456</v>
-      </c>
-      <c r="G203">
-        <v>295.9267734295182</v>
-      </c>
-      <c r="H203">
-        <v>1990.219601349483</v>
-      </c>
-      <c r="I203">
-        <v>757.3218679107861</v>
-      </c>
-      <c r="J203">
-        <v>-39.88231949001162</v>
-      </c>
-      <c r="K203">
-        <v>-165.3766320327663</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11">
-      <c r="A204">
-        <v>33</v>
-      </c>
-      <c r="B204" t="s">
-        <v>13</v>
-      </c>
-      <c r="C204" t="s">
-        <v>17</v>
-      </c>
-      <c r="D204" t="s">
-        <v>20</v>
-      </c>
-      <c r="E204">
-        <v>195.142</v>
-      </c>
-      <c r="F204">
-        <v>47.47663314817134</v>
-      </c>
-      <c r="G204">
-        <v>306.1508536788598</v>
-      </c>
-      <c r="H204">
-        <v>1999.018353123865</v>
-      </c>
-      <c r="I204">
-        <v>854.9494754007436</v>
-      </c>
-      <c r="J204">
-        <v>-84.62489668645267</v>
-      </c>
-      <c r="K204">
-        <v>-359.2618082999262</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11">
-      <c r="A205">
-        <v>33</v>
-      </c>
-      <c r="B205" t="s">
-        <v>13</v>
-      </c>
-      <c r="C205" t="s">
-        <v>17</v>
-      </c>
-      <c r="D205" t="s">
-        <v>20</v>
-      </c>
-      <c r="E205">
-        <v>196.142</v>
-      </c>
-      <c r="F205">
-        <v>46.83089801526609</v>
-      </c>
-      <c r="G205">
-        <v>316.3749339282015</v>
-      </c>
-      <c r="H205">
-        <v>2007.576412066611</v>
-      </c>
-      <c r="I205">
-        <v>954.9810729093899</v>
-      </c>
-      <c r="J205">
-        <v>-129.3674738828937</v>
-      </c>
-      <c r="K205">
-        <v>-561.9817584000743</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11">
-      <c r="A206">
-        <v>33</v>
-      </c>
-      <c r="B206" t="s">
-        <v>13</v>
-      </c>
-      <c r="C206" t="s">
-        <v>17</v>
-      </c>
-      <c r="D206" t="s">
-        <v>20</v>
-      </c>
-      <c r="E206">
-        <v>197.142</v>
-      </c>
-      <c r="F206">
-        <v>46.21080815983051</v>
-      </c>
-      <c r="G206">
-        <v>326.5990141775432</v>
-      </c>
-      <c r="H206">
-        <v>2015.90659676649</v>
-      </c>
-      <c r="I206">
-        <v>1057.475856479304</v>
-      </c>
-      <c r="J206">
-        <v>-174.1100510793348</v>
-      </c>
-      <c r="K206">
-        <v>-773.5364823332098</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11">
-      <c r="A207">
-        <v>33</v>
-      </c>
-      <c r="B207" t="s">
-        <v>13</v>
-      </c>
-      <c r="C207" t="s">
-        <v>17</v>
-      </c>
-      <c r="D207" t="s">
-        <v>20</v>
-      </c>
-      <c r="E207">
-        <v>198.142</v>
-      </c>
-      <c r="F207">
-        <v>45.6147101833736</v>
-      </c>
-      <c r="G207">
-        <v>336.8230944268848</v>
-      </c>
-      <c r="H207">
-        <v>2024.020728297019</v>
-      </c>
-      <c r="I207">
-        <v>1162.494479801155</v>
-      </c>
-      <c r="J207">
-        <v>-218.8526282757754</v>
-      </c>
-      <c r="K207">
-        <v>-993.9259800993315</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11">
-      <c r="A208">
-        <v>33</v>
-      </c>
-      <c r="B208" t="s">
-        <v>13</v>
-      </c>
-      <c r="C208" t="s">
-        <v>17</v>
-      </c>
-      <c r="D208" t="s">
-        <v>20</v>
-      </c>
-      <c r="E208">
-        <v>199.142</v>
-      </c>
-      <c r="F208">
-        <v>45.04109614590718</v>
-      </c>
-      <c r="G208">
-        <v>347.0471746762265</v>
-      </c>
-      <c r="H208">
-        <v>2031.929731104354</v>
-      </c>
-      <c r="I208">
-        <v>1270.099090106947</v>
-      </c>
-      <c r="J208">
-        <v>-263.5952054722165</v>
-      </c>
-      <c r="K208">
-        <v>-1223.150251698442</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11">
-      <c r="A209">
-        <v>33</v>
-      </c>
-      <c r="B209" t="s">
-        <v>13</v>
-      </c>
-      <c r="C209" t="s">
-        <v>17</v>
-      </c>
-      <c r="D209" t="s">
-        <v>20</v>
-      </c>
-      <c r="E209">
-        <v>200.142</v>
-      </c>
-      <c r="F209">
-        <v>44.48858751913851</v>
-      </c>
-      <c r="G209">
-        <v>357.2712549255681</v>
-      </c>
-      <c r="H209">
-        <v>2039.643721454455</v>
-      </c>
-      <c r="I209">
-        <v>1380.353364947091</v>
-      </c>
-      <c r="J209">
-        <v>-308.3377826686576</v>
-      </c>
-      <c r="K209">
-        <v>-1461.209297130541</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11">
-      <c r="A210">
-        <v>33</v>
-      </c>
-      <c r="B210" t="s">
-        <v>13</v>
-      </c>
-      <c r="C210" t="s">
-        <v>17</v>
-      </c>
-      <c r="D210" t="s">
-        <v>20</v>
-      </c>
-      <c r="E210">
-        <v>201.142</v>
-      </c>
-      <c r="F210">
-        <v>43.95592125119631</v>
-      </c>
-      <c r="G210">
-        <v>367.4953351749098</v>
-      </c>
-      <c r="H210">
-        <v>2047.172085236208</v>
-      </c>
-      <c r="I210">
-        <v>1493.3225498731</v>
-      </c>
-      <c r="J210">
-        <v>-353.0803598650986</v>
-      </c>
-      <c r="K210">
-        <v>-1708.103116395628</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11">
-      <c r="A211">
-        <v>33</v>
-      </c>
-      <c r="B211" t="s">
-        <v>13</v>
-      </c>
-      <c r="C211" t="s">
-        <v>17</v>
-      </c>
-      <c r="D211" t="s">
-        <v>20</v>
-      </c>
-      <c r="E211">
-        <v>202.142</v>
-      </c>
-      <c r="F211">
-        <v>43.44193762224941</v>
-      </c>
-      <c r="G211">
-        <v>377.7194154242515</v>
-      </c>
-      <c r="H211">
-        <v>2054.523546621572</v>
-      </c>
-      <c r="I211">
-        <v>1609.07349704817</v>
-      </c>
-      <c r="J211">
-        <v>-397.8229370615396</v>
-      </c>
-      <c r="K211">
-        <v>-1963.831709493702</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11">
-      <c r="A212">
-        <v>33</v>
-      </c>
-      <c r="B212" t="s">
-        <v>13</v>
-      </c>
-      <c r="C212" t="s">
-        <v>17</v>
-      </c>
-      <c r="D212" t="s">
-        <v>20</v>
-      </c>
-      <c r="E212">
-        <v>203.142</v>
-      </c>
-      <c r="F212">
-        <v>42.94556962526342</v>
-      </c>
-      <c r="G212">
-        <v>387.9434956735931</v>
-      </c>
-      <c r="H212">
-        <v>2061.706228842524</v>
-      </c>
-      <c r="I212">
-        <v>1727.674704808504</v>
-      </c>
-      <c r="J212">
-        <v>-442.5655142579803</v>
-      </c>
-      <c r="K212">
-        <v>-2228.395076424762</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11">
-      <c r="A213">
-        <v>33</v>
-      </c>
-      <c r="B213" t="s">
-        <v>13</v>
-      </c>
-      <c r="C213" t="s">
-        <v>17</v>
-      </c>
-      <c r="D213" t="s">
-        <v>20</v>
-      </c>
-      <c r="E213">
-        <v>204.142</v>
-      </c>
-      <c r="F213">
-        <v>42.46583365062476</v>
-      </c>
-      <c r="G213">
-        <v>398.1675759229348</v>
-      </c>
-      <c r="H213">
-        <v>2068.727708146595</v>
-      </c>
-      <c r="I213">
-        <v>1849.196358198828</v>
-      </c>
-      <c r="J213">
-        <v>-487.3080914544213</v>
-      </c>
-      <c r="K213">
-        <v>-2501.793217188812</v>
+        <v>3980083.883610155</v>
       </c>
     </row>
   </sheetData>
